--- a/Sonia_IndiaLab_English_20200804.xlsx
+++ b/Sonia_IndiaLab_English_20200804.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\Sonia Quality Assurance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2032EA12-9016-462F-B46C-C10E0A194B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ配置 (必須)" sheetId="3" r:id="rId1"/>
@@ -31,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Developer with DB Details'!$E$1:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Ini File Details'!$A$1:$K$70</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Missing DLLs'!$A$1:$I$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Project Details'!$A$1:$J$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Project Details'!$A$1:$J$80</definedName>
     <definedName name="_xlnm.Extract" localSheetId="6">'Developer with DB Details'!$E$1:$F$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'App placement (necessary)'!$A$1:$E$86</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'アプリ配置 (必須)'!$A$1:$D$86</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'App placement (necessary)'!$1:$1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'アプリ配置 (必須)'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4093" uniqueCount="580">
   <si>
     <t>ビックカメラ</t>
     <phoneticPr fontId="1"/>
@@ -2604,8 +2598,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3070,25 +3064,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3208,7 +3202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3240,27 +3234,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3292,24 +3268,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3485,7 +3443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3499,7 +3457,7 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -3507,7 +3465,7 @@
     <col min="4" max="4" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -3519,7 +3477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -3533,7 +3491,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" s="53"/>
       <c r="B3" s="53" t="s">
         <v>14</v>
@@ -3545,7 +3503,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="53"/>
@@ -3553,7 +3511,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" s="53"/>
       <c r="B5" s="53" t="s">
         <v>9</v>
@@ -3565,7 +3523,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" s="53"/>
       <c r="B6" s="53"/>
       <c r="C6" s="53"/>
@@ -3573,7 +3531,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" s="53"/>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -3585,7 +3543,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" s="53"/>
       <c r="B8" s="3" t="s">
         <v>118</v>
@@ -3597,7 +3555,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>119</v>
@@ -3609,7 +3567,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
         <v>120</v>
@@ -3621,7 +3579,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3633,7 +3591,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" s="53"/>
       <c r="B12" s="1" t="s">
         <v>122</v>
@@ -3645,7 +3603,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" s="53" t="s">
         <v>1</v>
       </c>
@@ -3659,7 +3617,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" s="53"/>
       <c r="B14" s="1" t="s">
         <v>47</v>
@@ -3671,7 +3629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" s="53"/>
       <c r="B15" s="1" t="s">
         <v>51</v>
@@ -3683,7 +3641,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" s="53"/>
       <c r="B16" s="1" t="s">
         <v>53</v>
@@ -3695,7 +3653,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="53"/>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -3707,7 +3665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="53"/>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -3719,7 +3677,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="53"/>
       <c r="B19" s="1" t="s">
         <v>62</v>
@@ -3731,7 +3689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="53"/>
       <c r="B20" s="1" t="s">
         <v>18</v>
@@ -3743,7 +3701,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="53"/>
       <c r="B21" s="3" t="s">
         <v>55</v>
@@ -3755,7 +3713,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="53"/>
       <c r="B22" s="1" t="s">
         <v>57</v>
@@ -3767,7 +3725,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="53"/>
       <c r="B23" s="1" t="s">
         <v>59</v>
@@ -3779,7 +3737,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="53"/>
       <c r="B24" s="1" t="s">
         <v>70</v>
@@ -3791,7 +3749,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="53"/>
       <c r="B25" s="1" t="s">
         <v>43</v>
@@ -3803,7 +3761,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="53"/>
       <c r="B26" s="1" t="s">
         <v>84</v>
@@ -3815,7 +3773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="53"/>
       <c r="B27" s="1" t="s">
         <v>80</v>
@@ -3827,7 +3785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="53"/>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -3839,7 +3797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="53"/>
       <c r="B29" s="1" t="s">
         <v>88</v>
@@ -3851,7 +3809,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="53"/>
       <c r="B30" s="1" t="s">
         <v>72</v>
@@ -3863,7 +3821,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="53"/>
       <c r="B31" s="1" t="s">
         <v>74</v>
@@ -3875,7 +3833,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="53"/>
       <c r="B32" s="1" t="s">
         <v>76</v>
@@ -3887,7 +3845,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="53"/>
       <c r="B33" s="1" t="s">
         <v>78</v>
@@ -3899,7 +3857,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="53"/>
       <c r="B34" s="1" t="s">
         <v>69</v>
@@ -3911,7 +3869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="53"/>
       <c r="B35" s="3" t="s">
         <v>86</v>
@@ -3923,7 +3881,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="53"/>
       <c r="B36" s="3" t="s">
         <v>44</v>
@@ -3935,7 +3893,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="53"/>
       <c r="B37" s="3" t="s">
         <v>44</v>
@@ -3947,7 +3905,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="53"/>
       <c r="B38" s="3" t="s">
         <v>44</v>
@@ -3959,7 +3917,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="53"/>
       <c r="B39" s="3" t="s">
         <v>44</v>
@@ -3971,7 +3929,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="53"/>
       <c r="B40" s="3" t="s">
         <v>44</v>
@@ -3983,7 +3941,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="53"/>
       <c r="B41" s="3" t="s">
         <v>140</v>
@@ -3995,7 +3953,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="53"/>
       <c r="B42" s="3" t="s">
         <v>108</v>
@@ -4007,7 +3965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="53"/>
       <c r="B43" s="3" t="s">
         <v>112</v>
@@ -4019,7 +3977,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="53"/>
       <c r="B44" s="3" t="s">
         <v>114</v>
@@ -4031,7 +3989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="53"/>
       <c r="B45" s="3" t="s">
         <v>122</v>
@@ -4043,7 +4001,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="53"/>
       <c r="B46" s="3" t="s">
         <v>123</v>
@@ -4055,7 +4013,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="53"/>
       <c r="B47" s="3" t="s">
         <v>138</v>
@@ -4067,7 +4025,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="53"/>
       <c r="B48" s="3" t="s">
         <v>138</v>
@@ -4079,7 +4037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="53" t="s">
         <v>2</v>
       </c>
@@ -4093,7 +4051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="53"/>
       <c r="B50" s="3" t="s">
         <v>8</v>
@@ -4105,7 +4063,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="53"/>
       <c r="B51" s="3" t="s">
         <v>18</v>
@@ -4117,7 +4075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="53"/>
       <c r="B52" s="3" t="s">
         <v>72</v>
@@ -4129,7 +4087,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="53"/>
       <c r="B53" s="3" t="s">
         <v>74</v>
@@ -4141,7 +4099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="53"/>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -4153,7 +4111,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="53"/>
       <c r="B55" s="3" t="s">
         <v>82</v>
@@ -4165,7 +4123,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4">
       <c r="A56" s="53"/>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -4177,7 +4135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4">
       <c r="A57" s="53"/>
       <c r="B57" s="3" t="s">
         <v>111</v>
@@ -4189,7 +4147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="53"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4201,7 +4159,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4">
       <c r="A59" s="53"/>
       <c r="B59" s="3" t="s">
         <v>129</v>
@@ -4213,7 +4171,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="53"/>
       <c r="B60" s="3" t="s">
         <v>122</v>
@@ -4225,7 +4183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="53" t="s">
         <v>35</v>
       </c>
@@ -4239,7 +4197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="53"/>
       <c r="B62" s="3" t="s">
         <v>107</v>
@@ -4251,7 +4209,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="53"/>
       <c r="B63" s="3" t="s">
         <v>122</v>
@@ -4263,7 +4221,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="53" t="s">
         <v>36</v>
       </c>
@@ -4277,7 +4235,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:4">
       <c r="A65" s="53"/>
       <c r="B65" s="3" t="s">
         <v>26</v>
@@ -4289,7 +4247,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="53"/>
       <c r="B66" s="3" t="s">
         <v>122</v>
@@ -4301,7 +4259,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="53" t="s">
         <v>3</v>
       </c>
@@ -4315,27 +4273,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="53"/>
-      <c r="B68" s="56" t="s">
+      <c r="B68" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="53"/>
       <c r="B70" s="3" t="s">
         <v>31</v>
@@ -4347,27 +4305,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="53"/>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="54" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="53"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="53"/>
       <c r="B73" s="3" t="s">
         <v>26</v>
@@ -4379,7 +4337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="53"/>
       <c r="B74" s="3" t="s">
         <v>122</v>
@@ -4391,7 +4349,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:4">
       <c r="A75" s="53" t="s">
         <v>127</v>
       </c>
@@ -4405,47 +4363,47 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="53"/>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:4">
       <c r="A77" s="53"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="53"/>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="53"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="53"/>
       <c r="B80" s="3" t="s">
         <v>26</v>
@@ -4457,7 +4415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" s="53"/>
       <c r="B81" s="3" t="s">
         <v>122</v>
@@ -4469,7 +4427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" s="53" t="s">
         <v>4</v>
       </c>
@@ -4483,27 +4441,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="53"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="53"/>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -4515,7 +4473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="53"/>
       <c r="B86" s="3" t="s">
         <v>122</v>
@@ -4527,19 +4485,21 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="C88" s="14" t="s">
         <v>162</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A75:A81"/>
+    <mergeCell ref="B76:B77"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B71:B72"/>
     <mergeCell ref="C71:C72"/>
@@ -4548,14 +4508,12 @@
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="A67:A74"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A75:A81"/>
-    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
@@ -4568,14 +4526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.125" customWidth="1"/>
     <col min="2" max="2" width="26.875" bestFit="1" customWidth="1"/>
@@ -4585,7 +4543,7 @@
     <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -4603,7 +4561,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="54">
       <c r="A2" s="53"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4617,7 +4575,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="54">
       <c r="A3" s="53"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -4631,7 +4589,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="27">
       <c r="A6" s="53" t="s">
         <v>106</v>
       </c>
@@ -4651,7 +4609,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="27">
       <c r="A7" s="53"/>
       <c r="B7" s="50" t="s">
         <v>217</v>
@@ -4669,7 +4627,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="27">
       <c r="A8" s="53"/>
       <c r="B8" s="50" t="s">
         <v>219</v>
@@ -4687,7 +4645,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="27">
       <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>215</v>
@@ -4705,7 +4663,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="27">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -4725,7 +4683,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="27">
       <c r="A14" s="53"/>
       <c r="B14" s="3" t="s">
         <v>171</v>
@@ -4743,7 +4701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="27">
       <c r="A15" s="53"/>
       <c r="B15" s="3" t="s">
         <v>171</v>
@@ -4761,7 +4719,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="27">
       <c r="A16" s="53"/>
       <c r="B16" s="3" t="s">
         <v>181</v>
@@ -4779,7 +4737,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="27">
       <c r="A17" s="53"/>
       <c r="B17" s="3" t="s">
         <v>172</v>
@@ -4797,7 +4755,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6">
       <c r="A18" s="53"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4805,7 +4763,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="21"/>
     </row>
-    <row r="23" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="40.5">
       <c r="A23" s="53" t="s">
         <v>166</v>
       </c>
@@ -4825,7 +4783,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6">
       <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>206</v>
@@ -4843,7 +4801,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" ht="40.5">
       <c r="A25" s="53"/>
       <c r="B25" s="21" t="s">
         <v>206</v>
@@ -4861,7 +4819,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="27">
       <c r="A29" s="53" t="s">
         <v>365</v>
       </c>
@@ -4881,7 +4839,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6">
       <c r="A30" s="53"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4889,7 +4847,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="21"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6">
       <c r="A31" s="53"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -4911,14 +4869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
@@ -4928,7 +4886,7 @@
     <col min="7" max="7" width="55.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="17"/>
       <c r="B1" s="17" t="s">
         <v>167</v>
@@ -4949,7 +4907,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="53"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4964,7 +4922,7 @@
       </c>
       <c r="G2" s="21"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="53"/>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -4979,7 +4937,7 @@
       </c>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="53"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -4994,7 +4952,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="53"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
@@ -5009,7 +4967,7 @@
       </c>
       <c r="G5" s="21"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="53"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -5024,7 +4982,7 @@
       </c>
       <c r="G6" s="21"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="53"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -5039,7 +4997,7 @@
       </c>
       <c r="G7" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>167</v>
@@ -5060,7 +5018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="27">
       <c r="A13" s="53" t="s">
         <v>165</v>
       </c>
@@ -5083,7 +5041,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="27">
       <c r="A14" s="53"/>
       <c r="B14" s="21" t="s">
         <v>171</v>
@@ -5104,7 +5062,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="27">
       <c r="A15" s="53"/>
       <c r="B15" s="21" t="s">
         <v>171</v>
@@ -5125,7 +5083,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="27">
       <c r="A16" s="53"/>
       <c r="B16" s="21" t="s">
         <v>171</v>
@@ -5146,7 +5104,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="27">
       <c r="A17" s="53"/>
       <c r="B17" s="21" t="s">
         <v>171</v>
@@ -5167,7 +5125,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="27">
       <c r="A18" s="53"/>
       <c r="B18" s="21" t="s">
         <v>171</v>
@@ -5188,7 +5146,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="27">
       <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>171</v>
@@ -5209,7 +5167,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="27">
       <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>171</v>
@@ -5230,7 +5188,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="27">
       <c r="A21" s="53"/>
       <c r="B21" s="21" t="s">
         <v>171</v>
@@ -5251,7 +5209,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="27">
       <c r="A22" s="53"/>
       <c r="B22" s="21" t="s">
         <v>171</v>
@@ -5272,7 +5230,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="27">
       <c r="A23" s="53"/>
       <c r="B23" s="21" t="s">
         <v>171</v>
@@ -5293,7 +5251,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="27">
       <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>171</v>
@@ -5314,7 +5272,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="27">
       <c r="A25" s="53"/>
       <c r="B25" s="21" t="s">
         <v>171</v>
@@ -5335,7 +5293,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="27">
       <c r="A26" s="53"/>
       <c r="B26" s="21" t="s">
         <v>171</v>
@@ -5356,7 +5314,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="27">
       <c r="A27" s="53"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
@@ -5377,7 +5335,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="27">
       <c r="A28" s="53"/>
       <c r="B28" s="21" t="s">
         <v>171</v>
@@ -5398,7 +5356,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="27">
       <c r="A29" s="53"/>
       <c r="B29" s="21" t="s">
         <v>171</v>
@@ -5419,7 +5377,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="27">
       <c r="A30" s="53"/>
       <c r="B30" s="21" t="s">
         <v>171</v>
@@ -5440,7 +5398,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="27">
       <c r="A31" s="53"/>
       <c r="B31" s="21" t="s">
         <v>171</v>
@@ -5461,7 +5419,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="27">
       <c r="A32" s="53"/>
       <c r="B32" s="21" t="s">
         <v>171</v>
@@ -5482,7 +5440,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="27">
       <c r="A33" s="53"/>
       <c r="B33" s="21" t="s">
         <v>171</v>
@@ -5503,7 +5461,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="27">
       <c r="A34" s="53"/>
       <c r="B34" s="21" t="s">
         <v>171</v>
@@ -5524,7 +5482,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="27">
       <c r="A35" s="53"/>
       <c r="B35" s="21" t="s">
         <v>171</v>
@@ -5545,7 +5503,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="27">
       <c r="A36" s="53"/>
       <c r="B36" s="21" t="s">
         <v>171</v>
@@ -5566,7 +5524,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="27">
       <c r="A37" s="53"/>
       <c r="B37" s="21" t="s">
         <v>171</v>
@@ -5587,7 +5545,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="27">
       <c r="A38" s="53"/>
       <c r="B38" s="21" t="s">
         <v>171</v>
@@ -5608,7 +5566,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="53"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
@@ -5617,7 +5575,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="21"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="53"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -5626,7 +5584,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="21"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>167</v>
@@ -5647,7 +5605,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="27">
       <c r="A46" s="53" t="s">
         <v>165</v>
       </c>
@@ -5670,7 +5628,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="27">
       <c r="A47" s="53"/>
       <c r="B47" s="3" t="s">
         <v>181</v>
@@ -5691,7 +5649,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="27">
       <c r="A48" s="53"/>
       <c r="B48" s="3" t="s">
         <v>181</v>
@@ -5712,7 +5670,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="27">
       <c r="A49" s="53"/>
       <c r="B49" s="3" t="s">
         <v>181</v>
@@ -5733,7 +5691,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="27">
       <c r="A50" s="53"/>
       <c r="B50" s="3" t="s">
         <v>181</v>
@@ -5754,7 +5712,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="27">
       <c r="A51" s="53"/>
       <c r="B51" s="3" t="s">
         <v>181</v>
@@ -5775,7 +5733,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="27">
       <c r="A52" s="53"/>
       <c r="B52" s="3" t="s">
         <v>181</v>
@@ -5796,7 +5754,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="27">
       <c r="A53" s="53"/>
       <c r="B53" s="3" t="s">
         <v>181</v>
@@ -5817,7 +5775,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="27">
       <c r="A54" s="53"/>
       <c r="B54" s="3" t="s">
         <v>181</v>
@@ -5838,7 +5796,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="27">
       <c r="A55" s="53"/>
       <c r="B55" s="3" t="s">
         <v>181</v>
@@ -5859,7 +5817,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="27">
       <c r="A56" s="53"/>
       <c r="B56" s="3" t="s">
         <v>181</v>
@@ -5880,7 +5838,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="27">
       <c r="A57" s="53"/>
       <c r="B57" s="3" t="s">
         <v>181</v>
@@ -5901,7 +5859,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="27">
       <c r="A58" s="53"/>
       <c r="B58" s="3" t="s">
         <v>181</v>
@@ -5922,7 +5880,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="27">
       <c r="A59" s="53"/>
       <c r="B59" s="3" t="s">
         <v>181</v>
@@ -5943,7 +5901,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="27">
       <c r="A60" s="53"/>
       <c r="B60" s="3" t="s">
         <v>181</v>
@@ -5964,7 +5922,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="27">
       <c r="A61" s="53"/>
       <c r="B61" s="3" t="s">
         <v>181</v>
@@ -5985,7 +5943,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="27">
       <c r="A62" s="53"/>
       <c r="B62" s="3" t="s">
         <v>181</v>
@@ -6006,7 +5964,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="27">
       <c r="A63" s="53"/>
       <c r="B63" s="3" t="s">
         <v>181</v>
@@ -6027,7 +5985,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="27">
       <c r="A64" s="53"/>
       <c r="B64" s="3" t="s">
         <v>181</v>
@@ -6048,7 +6006,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="27">
       <c r="A65" s="53"/>
       <c r="B65" s="3" t="s">
         <v>181</v>
@@ -6069,7 +6027,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="27">
       <c r="A66" s="53"/>
       <c r="B66" s="3" t="s">
         <v>181</v>
@@ -6090,7 +6048,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="27">
       <c r="A67" s="53"/>
       <c r="B67" s="3" t="s">
         <v>181</v>
@@ -6111,7 +6069,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="27">
       <c r="A68" s="53"/>
       <c r="B68" s="3" t="s">
         <v>181</v>
@@ -6132,7 +6090,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="27">
       <c r="A69" s="53"/>
       <c r="B69" s="3" t="s">
         <v>181</v>
@@ -6153,7 +6111,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="27">
       <c r="A70" s="53"/>
       <c r="B70" s="3" t="s">
         <v>181</v>
@@ -6174,7 +6132,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="27">
       <c r="A71" s="53"/>
       <c r="B71" s="3" t="s">
         <v>181</v>
@@ -6195,7 +6153,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7">
       <c r="A72" s="53"/>
       <c r="B72" s="21"/>
       <c r="C72" s="21"/>
@@ -6204,7 +6162,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="21"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7">
       <c r="A73" s="53"/>
       <c r="B73" s="21"/>
       <c r="C73" s="21"/>
@@ -6213,7 +6171,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="21"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7">
       <c r="A77" s="2"/>
       <c r="B77" s="2" t="s">
         <v>167</v>
@@ -6234,7 +6192,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="27">
       <c r="A78" s="53" t="s">
         <v>165</v>
       </c>
@@ -6257,7 +6215,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="27">
       <c r="A79" s="53"/>
       <c r="B79" s="3" t="s">
         <v>172</v>
@@ -6278,7 +6236,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="27">
       <c r="A80" s="53"/>
       <c r="B80" s="3" t="s">
         <v>172</v>
@@ -6299,7 +6257,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="27">
       <c r="A81" s="53"/>
       <c r="B81" s="3" t="s">
         <v>172</v>
@@ -6320,7 +6278,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="27">
       <c r="A82" s="53"/>
       <c r="B82" s="3" t="s">
         <v>172</v>
@@ -6341,7 +6299,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="27">
       <c r="A83" s="53"/>
       <c r="B83" s="3" t="s">
         <v>172</v>
@@ -6362,7 +6320,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="27">
       <c r="A84" s="53"/>
       <c r="B84" s="3" t="s">
         <v>172</v>
@@ -6383,7 +6341,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="27">
       <c r="A85" s="53"/>
       <c r="B85" s="3" t="s">
         <v>172</v>
@@ -6404,7 +6362,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="27">
       <c r="A86" s="53"/>
       <c r="B86" s="3" t="s">
         <v>172</v>
@@ -6425,7 +6383,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="27">
       <c r="A87" s="53"/>
       <c r="B87" s="3" t="s">
         <v>172</v>
@@ -6446,7 +6404,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="27">
       <c r="A88" s="53"/>
       <c r="B88" s="3" t="s">
         <v>172</v>
@@ -6467,7 +6425,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="27">
       <c r="A89" s="53"/>
       <c r="B89" s="3" t="s">
         <v>172</v>
@@ -6488,7 +6446,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="27">
       <c r="A90" s="53"/>
       <c r="B90" s="3" t="s">
         <v>172</v>
@@ -6509,7 +6467,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="27">
       <c r="A91" s="53"/>
       <c r="B91" s="3" t="s">
         <v>172</v>
@@ -6530,7 +6488,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="27">
       <c r="A92" s="53"/>
       <c r="B92" s="3" t="s">
         <v>172</v>
@@ -6551,7 +6509,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="27">
       <c r="A93" s="53"/>
       <c r="B93" s="3" t="s">
         <v>172</v>
@@ -6572,7 +6530,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="27">
       <c r="A94" s="53"/>
       <c r="B94" s="3" t="s">
         <v>172</v>
@@ -6593,7 +6551,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="27">
       <c r="A95" s="53"/>
       <c r="B95" s="3" t="s">
         <v>172</v>
@@ -6614,7 +6572,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="27">
       <c r="A96" s="53"/>
       <c r="B96" s="3" t="s">
         <v>172</v>
@@ -6635,7 +6593,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="27">
       <c r="A97" s="53"/>
       <c r="B97" s="3" t="s">
         <v>172</v>
@@ -6656,7 +6614,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="27">
       <c r="A98" s="53"/>
       <c r="B98" s="3" t="s">
         <v>172</v>
@@ -6677,7 +6635,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="27">
       <c r="A99" s="53"/>
       <c r="B99" s="3" t="s">
         <v>172</v>
@@ -6698,7 +6656,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="27">
       <c r="A100" s="53"/>
       <c r="B100" s="3" t="s">
         <v>172</v>
@@ -6719,7 +6677,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="27">
       <c r="A101" s="53"/>
       <c r="B101" s="3" t="s">
         <v>172</v>
@@ -6740,7 +6698,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="27">
       <c r="A102" s="53"/>
       <c r="B102" s="3" t="s">
         <v>172</v>
@@ -6761,7 +6719,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="27">
       <c r="A103" s="53"/>
       <c r="B103" s="3" t="s">
         <v>172</v>
@@ -6782,7 +6740,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7">
       <c r="A104" s="53"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -6791,7 +6749,7 @@
       <c r="F104" s="1"/>
       <c r="G104" s="21"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7">
       <c r="A105" s="53"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -6800,7 +6758,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="21"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7">
       <c r="A109" s="2"/>
       <c r="B109" s="2" t="s">
         <v>167</v>
@@ -6821,7 +6779,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="27">
       <c r="A110" s="53" t="s">
         <v>104</v>
       </c>
@@ -6844,7 +6802,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="27">
       <c r="A111" s="53"/>
       <c r="B111" s="21" t="s">
         <v>189</v>
@@ -6865,7 +6823,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="27">
       <c r="A112" s="53"/>
       <c r="B112" s="21" t="s">
         <v>187</v>
@@ -6886,7 +6844,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7">
       <c r="A115" s="2"/>
       <c r="B115" s="2" t="s">
         <v>167</v>
@@ -6907,7 +6865,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="27">
       <c r="A116" s="53" t="s">
         <v>166</v>
       </c>
@@ -6930,7 +6888,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="27">
       <c r="A117" s="53"/>
       <c r="B117" s="21" t="s">
         <v>206</v>
@@ -6951,7 +6909,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="27">
       <c r="A118" s="53"/>
       <c r="B118" s="21" t="s">
         <v>206</v>
@@ -6972,7 +6930,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="27">
       <c r="A119" s="53"/>
       <c r="B119" s="21" t="s">
         <v>206</v>
@@ -6993,7 +6951,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="27">
       <c r="A120" s="53"/>
       <c r="B120" s="21" t="s">
         <v>206</v>
@@ -7014,7 +6972,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="27">
       <c r="A121" s="53"/>
       <c r="B121" s="21" t="s">
         <v>206</v>
@@ -7035,7 +6993,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="27">
       <c r="A122" s="53"/>
       <c r="B122" s="21" t="s">
         <v>206</v>
@@ -7056,7 +7014,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="27">
       <c r="A123" s="53"/>
       <c r="B123" s="21" t="s">
         <v>206</v>
@@ -7077,7 +7035,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="27">
       <c r="A124" s="53"/>
       <c r="B124" s="21" t="s">
         <v>206</v>
@@ -7098,7 +7056,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="27">
       <c r="A125" s="53"/>
       <c r="B125" s="21" t="s">
         <v>206</v>
@@ -7119,7 +7077,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="27">
       <c r="A126" s="53"/>
       <c r="B126" s="21" t="s">
         <v>206</v>
@@ -7140,7 +7098,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="27">
       <c r="A127" s="53"/>
       <c r="B127" s="21" t="s">
         <v>206</v>
@@ -7161,7 +7119,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="27">
       <c r="A128" s="53"/>
       <c r="B128" s="21" t="s">
         <v>206</v>
@@ -7182,7 +7140,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="12.75" customHeight="1">
       <c r="A129" s="53"/>
       <c r="B129" s="21" t="s">
         <v>206</v>
@@ -7203,7 +7161,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="27">
       <c r="A130" s="53"/>
       <c r="B130" s="21" t="s">
         <v>206</v>
@@ -7224,7 +7182,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="27">
       <c r="A131" s="53"/>
       <c r="B131" s="21" t="s">
         <v>206</v>
@@ -7245,7 +7203,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="27">
       <c r="A132" s="53"/>
       <c r="B132" s="21" t="s">
         <v>206</v>
@@ -7266,7 +7224,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="27">
       <c r="A133" s="53"/>
       <c r="B133" s="21" t="s">
         <v>206</v>
@@ -7287,7 +7245,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="27">
       <c r="A134" s="53"/>
       <c r="B134" s="21" t="s">
         <v>206</v>
@@ -7308,7 +7266,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="27">
       <c r="A135" s="53"/>
       <c r="B135" s="21" t="s">
         <v>206</v>
@@ -7329,7 +7287,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="27">
       <c r="A136" s="53"/>
       <c r="B136" s="21" t="s">
         <v>206</v>
@@ -7350,7 +7308,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="27">
       <c r="A137" s="53"/>
       <c r="B137" s="21" t="s">
         <v>206</v>
@@ -7371,7 +7329,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="27">
       <c r="A138" s="53"/>
       <c r="B138" s="21" t="s">
         <v>206</v>
@@ -7392,7 +7350,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="27">
       <c r="A139" s="53"/>
       <c r="B139" s="21" t="s">
         <v>206</v>
@@ -7413,7 +7371,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="27">
       <c r="A140" s="53"/>
       <c r="B140" s="21" t="s">
         <v>206</v>
@@ -7434,7 +7392,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="27">
       <c r="A141" s="53"/>
       <c r="B141" s="21" t="s">
         <v>206</v>
@@ -7455,7 +7413,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="27">
       <c r="A142" s="53"/>
       <c r="B142" s="21" t="s">
         <v>206</v>
@@ -7490,14 +7448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32.375" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
@@ -7505,7 +7463,7 @@
     <col min="4" max="5" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -7522,7 +7480,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
         <v>166</v>
       </c>
@@ -7539,7 +7497,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>205</v>
@@ -7554,7 +7512,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
         <v>205</v>
@@ -7569,7 +7527,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="53"/>
       <c r="B5" s="21" t="s">
         <v>205</v>
@@ -7584,7 +7542,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="53"/>
       <c r="B6" s="21" t="s">
         <v>205</v>
@@ -7599,7 +7557,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="53"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
@@ -7614,7 +7572,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="53"/>
       <c r="B8" s="21" t="s">
         <v>205</v>
@@ -7629,7 +7587,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="53"/>
       <c r="B9" s="21" t="s">
         <v>205</v>
@@ -7644,7 +7602,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="53"/>
       <c r="B10" s="21" t="s">
         <v>205</v>
@@ -7659,7 +7617,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="53"/>
       <c r="B11" s="21" t="s">
         <v>205</v>
@@ -7674,7 +7632,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="53"/>
       <c r="B12" s="21" t="s">
         <v>205</v>
@@ -7689,7 +7647,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="53"/>
       <c r="B13" s="21" t="s">
         <v>205</v>
@@ -7704,7 +7662,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="53"/>
       <c r="B14" s="21" t="s">
         <v>205</v>
@@ -7719,7 +7677,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="53"/>
       <c r="B15" s="21" t="s">
         <v>205</v>
@@ -7734,7 +7692,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="53"/>
       <c r="B16" s="21" t="s">
         <v>205</v>
@@ -7749,7 +7707,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="53"/>
       <c r="B17" s="21" t="s">
         <v>205</v>
@@ -7764,7 +7722,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="53"/>
       <c r="B18" s="21" t="s">
         <v>205</v>
@@ -7779,7 +7737,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>205</v>
@@ -7794,7 +7752,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="77" t="s">
         <v>166</v>
       </c>
@@ -7809,7 +7767,7 @@
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="78"/>
       <c r="B21" s="21" t="s">
         <v>196</v>
@@ -7822,7 +7780,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="78"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -7835,7 +7793,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="78"/>
       <c r="B23" s="21" t="s">
         <v>197</v>
@@ -7848,7 +7806,7 @@
       </c>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="78"/>
       <c r="B24" s="21" t="s">
         <v>201</v>
@@ -7861,7 +7819,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="78"/>
       <c r="B25" s="21" t="s">
         <v>201</v>
@@ -7874,7 +7832,7 @@
       </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="78"/>
       <c r="B26" s="21" t="s">
         <v>202</v>
@@ -7887,7 +7845,7 @@
       </c>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="78"/>
       <c r="B27" s="21" t="s">
         <v>202</v>
@@ -7900,7 +7858,7 @@
       </c>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="78"/>
       <c r="B28" s="21" t="s">
         <v>204</v>
@@ -7913,7 +7871,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="79"/>
       <c r="B29" s="21" t="s">
         <v>204</v>
@@ -7926,35 +7884,35 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -7962,7 +7920,7 @@
       <c r="E34" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E19" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <autoFilter ref="A1:E19"/>
   <mergeCells count="2">
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="A20:A29"/>
@@ -7972,7 +7930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7986,7 +7944,7 @@
       <selection pane="bottomRight" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" bestFit="1" customWidth="1"/>
@@ -7995,7 +7953,7 @@
     <col min="5" max="5" width="27.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -8008,7 +7966,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
         <v>165</v>
       </c>
@@ -8023,9 +7981,9 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="53"/>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>171</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -8036,18 +7994,18 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="53"/>
-      <c r="B4" s="60"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="53"/>
       <c r="D4" s="10"/>
       <c r="E4" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="53"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="57" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="53" t="s">
@@ -8058,16 +8016,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="53"/>
-      <c r="B6" s="60"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="53"/>
       <c r="D6" s="10"/>
       <c r="E6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="53"/>
       <c r="B7" s="1" t="s">
         <v>177</v>
@@ -8080,7 +8038,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="53"/>
       <c r="B8" s="3" t="s">
         <v>173</v>
@@ -8095,7 +8053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>178</v>
@@ -8110,7 +8068,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
         <v>179</v>
@@ -8123,7 +8081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
         <v>180</v>
@@ -8136,7 +8094,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="53"/>
       <c r="B12" s="1" t="s">
         <v>174</v>
@@ -8149,7 +8107,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="53" t="s">
         <v>166</v>
       </c>
@@ -8164,7 +8122,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="53"/>
       <c r="B14" s="1" t="s">
         <v>183</v>
@@ -8177,7 +8135,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="53"/>
       <c r="B15" s="1" t="s">
         <v>184</v>
@@ -8190,7 +8148,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="53"/>
       <c r="B16" s="1" t="s">
         <v>185</v>
@@ -8203,7 +8161,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="53"/>
       <c r="B17" s="1" t="s">
         <v>186</v>
@@ -8216,7 +8174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="53"/>
       <c r="B18" s="1" t="s">
         <v>187</v>
@@ -8229,7 +8187,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="53"/>
       <c r="B19" s="1" t="s">
         <v>188</v>
@@ -8242,7 +8200,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="53"/>
       <c r="B20" s="1" t="s">
         <v>189</v>
@@ -8255,7 +8213,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="53"/>
       <c r="B21" s="3" t="s">
         <v>190</v>
@@ -8268,7 +8226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="53"/>
       <c r="B22" s="1" t="s">
         <v>191</v>
@@ -8281,7 +8239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="53"/>
       <c r="B23" s="1" t="s">
         <v>192</v>
@@ -8294,7 +8252,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="53"/>
       <c r="B24" s="1" t="s">
         <v>193</v>
@@ -8307,7 +8265,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="53"/>
       <c r="B25" s="1" t="s">
         <v>194</v>
@@ -8320,7 +8278,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" s="53"/>
       <c r="B26" s="1" t="s">
         <v>195</v>
@@ -8333,7 +8291,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="53"/>
       <c r="B27" s="1" t="s">
         <v>196</v>
@@ -8346,7 +8304,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="A28" s="53"/>
       <c r="B28" s="1" t="s">
         <v>197</v>
@@ -8359,7 +8317,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" s="53"/>
       <c r="B29" s="1" t="s">
         <v>198</v>
@@ -8372,7 +8330,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="A30" s="53"/>
       <c r="B30" s="1" t="s">
         <v>199</v>
@@ -8385,7 +8343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="A31" s="53"/>
       <c r="B31" s="1" t="s">
         <v>200</v>
@@ -8398,7 +8356,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="A32" s="53"/>
       <c r="B32" s="1" t="s">
         <v>201</v>
@@ -8411,7 +8369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5">
       <c r="A33" s="53"/>
       <c r="B33" s="1" t="s">
         <v>202</v>
@@ -8424,7 +8382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" s="53"/>
       <c r="B34" s="1" t="s">
         <v>203</v>
@@ -8437,7 +8395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="A35" s="53"/>
       <c r="B35" s="3" t="s">
         <v>204</v>
@@ -8450,7 +8408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="A36" s="53"/>
       <c r="B36" s="3" t="s">
         <v>205</v>
@@ -8463,7 +8421,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="A37" s="53"/>
       <c r="B37" s="3" t="s">
         <v>205</v>
@@ -8476,7 +8434,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="A38" s="53"/>
       <c r="B38" s="3" t="s">
         <v>205</v>
@@ -8489,7 +8447,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="A39" s="53"/>
       <c r="B39" s="3" t="s">
         <v>205</v>
@@ -8502,7 +8460,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="A40" s="53"/>
       <c r="B40" s="3" t="s">
         <v>205</v>
@@ -8515,7 +8473,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="A41" s="53"/>
       <c r="B41" s="3" t="s">
         <v>206</v>
@@ -8528,7 +8486,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="A42" s="53"/>
       <c r="B42" s="3" t="s">
         <v>207</v>
@@ -8543,7 +8501,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="A43" s="53"/>
       <c r="B43" s="3" t="s">
         <v>225</v>
@@ -8558,7 +8516,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5">
       <c r="A44" s="53"/>
       <c r="B44" s="3" t="s">
         <v>226</v>
@@ -8573,7 +8531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="A45" s="53"/>
       <c r="B45" s="3" t="s">
         <v>174</v>
@@ -8586,7 +8544,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="A46" s="53"/>
       <c r="B46" s="3" t="s">
         <v>208</v>
@@ -8599,7 +8557,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="A47" s="53"/>
       <c r="B47" s="3" t="s">
         <v>209</v>
@@ -8612,7 +8570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="A48" s="53"/>
       <c r="B48" s="3" t="s">
         <v>209</v>
@@ -8625,7 +8583,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5">
       <c r="A49" s="53" t="s">
         <v>175</v>
       </c>
@@ -8640,7 +8598,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5">
       <c r="A50" s="53"/>
       <c r="B50" s="3" t="s">
         <v>211</v>
@@ -8653,7 +8611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5">
       <c r="A51" s="53"/>
       <c r="B51" s="3" t="s">
         <v>189</v>
@@ -8666,7 +8624,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5">
       <c r="A52" s="53"/>
       <c r="B52" s="3" t="s">
         <v>199</v>
@@ -8679,7 +8637,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5">
       <c r="A53" s="53"/>
       <c r="B53" s="3" t="s">
         <v>212</v>
@@ -8692,7 +8650,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5">
       <c r="A54" s="53"/>
       <c r="B54" s="3" t="s">
         <v>202</v>
@@ -8705,7 +8663,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5">
       <c r="A55" s="53"/>
       <c r="B55" s="3" t="s">
         <v>197</v>
@@ -8718,7 +8676,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5">
       <c r="A56" s="53"/>
       <c r="B56" s="3" t="s">
         <v>204</v>
@@ -8731,7 +8689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5">
       <c r="A57" s="53"/>
       <c r="B57" s="3" t="s">
         <v>213</v>
@@ -8746,7 +8704,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5">
       <c r="A58" s="53"/>
       <c r="B58" s="3" t="s">
         <v>190</v>
@@ -8759,7 +8717,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5">
       <c r="A59" s="53"/>
       <c r="B59" s="3" t="s">
         <v>214</v>
@@ -8774,7 +8732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5">
       <c r="A60" s="53"/>
       <c r="B60" s="3" t="s">
         <v>174</v>
@@ -8787,7 +8745,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5">
       <c r="A61" s="53" t="s">
         <v>176</v>
       </c>
@@ -8802,7 +8760,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5">
       <c r="A62" s="53"/>
       <c r="B62" s="3" t="s">
         <v>216</v>
@@ -8815,7 +8773,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5">
       <c r="A63" s="53"/>
       <c r="B63" s="3" t="s">
         <v>174</v>
@@ -8828,7 +8786,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5">
       <c r="A64" s="53" t="s">
         <v>168</v>
       </c>
@@ -8843,7 +8801,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" s="53"/>
       <c r="B65" s="3" t="s">
         <v>215</v>
@@ -8856,7 +8814,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" s="53"/>
       <c r="B66" s="3" t="s">
         <v>174</v>
@@ -8869,7 +8827,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" s="53" t="s">
         <v>169</v>
       </c>
@@ -8884,12 +8842,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" s="53"/>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C68" s="56" t="s">
+      <c r="C68" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="13"/>
@@ -8897,16 +8855,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" s="53"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="56"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="13"/>
       <c r="E69" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" s="53"/>
       <c r="B70" s="3" t="s">
         <v>220</v>
@@ -8919,12 +8877,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" s="53"/>
-      <c r="B71" s="56" t="s">
+      <c r="B71" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="56" t="s">
+      <c r="C71" s="54" t="s">
         <v>32</v>
       </c>
       <c r="D71" s="13"/>
@@ -8932,16 +8890,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" s="53"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="56"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="13"/>
       <c r="E72" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" s="53"/>
       <c r="B73" s="3" t="s">
         <v>215</v>
@@ -8954,7 +8912,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" s="53"/>
       <c r="B74" s="3" t="s">
         <v>174</v>
@@ -8967,7 +8925,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" s="53" t="s">
         <v>106</v>
       </c>
@@ -8982,12 +8940,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" s="53"/>
-      <c r="B76" s="57" t="s">
+      <c r="B76" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="56" t="s">
+      <c r="C76" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D76" s="13"/>
@@ -8995,21 +8953,21 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" s="53"/>
-      <c r="B77" s="58"/>
-      <c r="C77" s="56"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="13"/>
       <c r="E77" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" s="53"/>
-      <c r="B78" s="56" t="s">
+      <c r="B78" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="C78" s="56" t="s">
+      <c r="C78" s="54" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="13"/>
@@ -9017,16 +8975,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" s="53"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="56"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="13"/>
       <c r="E79" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" s="53"/>
       <c r="B80" s="3" t="s">
         <v>215</v>
@@ -9039,7 +8997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5">
       <c r="A81" s="53"/>
       <c r="B81" s="3" t="s">
         <v>174</v>
@@ -9052,7 +9010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5">
       <c r="A82" s="53" t="s">
         <v>104</v>
       </c>
@@ -9067,12 +9025,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5">
       <c r="A83" s="53"/>
-      <c r="B83" s="54" t="s">
+      <c r="B83" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C83" s="54" t="s">
+      <c r="C83" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="11"/>
@@ -9080,16 +9038,16 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:5">
       <c r="A84" s="53"/>
-      <c r="B84" s="55"/>
-      <c r="C84" s="55"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
       <c r="D84" s="12"/>
       <c r="E84" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:5">
       <c r="A85" s="53"/>
       <c r="B85" s="3" t="s">
         <v>218</v>
@@ -9102,7 +9060,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:5">
       <c r="A86" s="53"/>
       <c r="B86" s="3" t="s">
         <v>174</v>
@@ -9115,35 +9073,29 @@
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5">
       <c r="C88" s="14" t="s">
         <v>170</v>
       </c>
       <c r="D88" s="14"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5">
       <c r="A90" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>278</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A13:A48"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
     <mergeCell ref="A82:A86"/>
     <mergeCell ref="B83:B84"/>
     <mergeCell ref="C83:C84"/>
@@ -9160,6 +9112,12 @@
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A13:A48"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
   <pageMargins left="0.47244094488188981" right="0.19685039370078741" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.27559055118110237"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
@@ -9171,14 +9129,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" style="4" bestFit="1" customWidth="1"/>
@@ -9186,12 +9144,12 @@
     <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="6"/>
       <c r="B3" s="6" t="s">
         <v>145</v>
@@ -9200,7 +9158,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="61" t="s">
         <v>147</v>
       </c>
@@ -9211,7 +9169,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="61"/>
       <c r="B5" s="7" t="s">
         <v>149</v>
@@ -9220,7 +9178,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="61"/>
       <c r="B6" s="7" t="s">
         <v>150</v>
@@ -9229,7 +9187,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="78.75">
       <c r="A7" s="61"/>
       <c r="B7" s="7" t="s">
         <v>151</v>
@@ -9238,7 +9196,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
         <v>153</v>
       </c>
@@ -9247,7 +9205,7 @@
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
         <v>155</v>
       </c>
@@ -9258,7 +9216,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
         <v>157</v>
       </c>
@@ -9269,7 +9227,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
         <v>159</v>
       </c>
@@ -9291,14 +9249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:VMV142"/>
   <sheetViews>
     <sheetView topLeftCell="C82" workbookViewId="0">
       <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -9310,7 +9268,7 @@
     <col min="9" max="9" width="50.625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15232">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -9335,7 +9293,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15232" ht="27">
       <c r="A2" s="53" t="s">
         <v>165</v>
       </c>
@@ -9358,7 +9316,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="1:15232" ht="54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15232" ht="54">
       <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -9379,7 +9337,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15232">
       <c r="A4" s="53"/>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
@@ -9392,7 +9350,7 @@
       <c r="H4" s="21"/>
       <c r="I4" s="27"/>
     </row>
-    <row r="5" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15232">
       <c r="A5" s="53"/>
       <c r="B5" s="21" t="s">
         <v>172</v>
@@ -9413,7 +9371,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15232">
       <c r="A6" s="53"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -9426,7 +9384,7 @@
       <c r="H6" s="21"/>
       <c r="I6" s="27"/>
     </row>
-    <row r="7" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15232">
       <c r="A7" s="53"/>
       <c r="B7" s="21" t="s">
         <v>177</v>
@@ -9445,7 +9403,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="8" spans="1:15232" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15232" ht="27">
       <c r="A8" s="53"/>
       <c r="B8" s="21" t="s">
         <v>173</v>
@@ -9464,7 +9422,7 @@
       <c r="H8" s="21"/>
       <c r="I8" s="27"/>
     </row>
-    <row r="9" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15232">
       <c r="A9" s="53"/>
       <c r="B9" s="21" t="s">
         <v>178</v>
@@ -9483,7 +9441,7 @@
       <c r="H9" s="21"/>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15232">
       <c r="A10" s="53"/>
       <c r="B10" s="21" t="s">
         <v>179</v>
@@ -9500,7 +9458,7 @@
       <c r="H10" s="21"/>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15232">
       <c r="A11" s="53"/>
       <c r="B11" s="21" t="s">
         <v>180</v>
@@ -9517,7 +9475,7 @@
       <c r="H11" s="21"/>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15232">
       <c r="A12" s="53"/>
       <c r="B12" s="21" t="s">
         <v>174</v>
@@ -9534,7 +9492,7 @@
       <c r="H12" s="21"/>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15232">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -9544,7 +9502,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15232">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -9554,7 +9512,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:15232" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15232" s="15" customFormat="1">
       <c r="A15" s="53" t="s">
         <v>166</v>
       </c>
@@ -24798,7 +24756,7 @@
       <c r="VMU15" s="18"/>
       <c r="VMV15" s="18"/>
     </row>
-    <row r="16" spans="1:15232" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15232">
       <c r="A16" s="53"/>
       <c r="B16" s="21" t="s">
         <v>183</v>
@@ -24819,7 +24777,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="27" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="27">
       <c r="A17" s="53"/>
       <c r="B17" s="21" t="s">
         <v>184</v>
@@ -24840,7 +24798,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="53"/>
       <c r="B18" s="21" t="s">
         <v>185</v>
@@ -24861,7 +24819,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="18" customFormat="1">
       <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>186</v>
@@ -24880,7 +24838,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="28"/>
     </row>
-    <row r="20" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" s="18" customFormat="1">
       <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>187</v>
@@ -24901,7 +24859,7 @@
       </c>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A21" s="53"/>
       <c r="B21" s="21" t="s">
         <v>188</v>
@@ -24922,7 +24880,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A22" s="53"/>
       <c r="B22" s="21" t="s">
         <v>189</v>
@@ -24943,7 +24901,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" s="18" customFormat="1">
       <c r="A23" s="53"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
@@ -24964,7 +24922,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>191</v>
@@ -24985,7 +24943,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A25" s="53"/>
       <c r="B25" s="21" t="s">
         <v>192</v>
@@ -25006,7 +24964,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A26" s="53"/>
       <c r="B26" s="21" t="s">
         <v>193</v>
@@ -25027,7 +24985,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A27" s="53"/>
       <c r="B27" s="21" t="s">
         <v>194</v>
@@ -25048,7 +25006,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="18" customFormat="1">
       <c r="A28" s="53"/>
       <c r="B28" s="21" t="s">
         <v>195</v>
@@ -25067,7 +25025,7 @@
       <c r="H28" s="21"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A29" s="53"/>
       <c r="B29" s="21" t="s">
         <v>196</v>
@@ -25088,7 +25046,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="18" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="53"/>
       <c r="B30" s="21" t="s">
         <v>197</v>
@@ -25109,7 +25067,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A31" s="53"/>
       <c r="B31" s="21" t="s">
         <v>198</v>
@@ -25130,7 +25088,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A32" s="53"/>
       <c r="B32" s="21" t="s">
         <v>199</v>
@@ -25151,7 +25109,7 @@
       </c>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A33" s="53"/>
       <c r="B33" s="21" t="s">
         <v>200</v>
@@ -25172,7 +25130,7 @@
       </c>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A34" s="53"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -25193,7 +25151,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A35" s="53"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -25214,7 +25172,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A36" s="53"/>
       <c r="B36" s="21" t="s">
         <v>203</v>
@@ -25235,7 +25193,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A37" s="53"/>
       <c r="B37" s="21" t="s">
         <v>204</v>
@@ -25256,7 +25214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A38" s="53"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -25279,7 +25237,7 @@
       </c>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A39" s="53"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -25302,7 +25260,7 @@
       </c>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A40" s="53"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -25325,7 +25283,7 @@
       </c>
       <c r="I40" s="28"/>
     </row>
-    <row r="41" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A41" s="53"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -25348,7 +25306,7 @@
       </c>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A42" s="53"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -25371,7 +25329,7 @@
       </c>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A43" s="53"/>
       <c r="B43" s="21" t="s">
         <v>206</v>
@@ -25392,7 +25350,7 @@
       </c>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" s="18" customFormat="1">
       <c r="A44" s="53"/>
       <c r="B44" s="21" t="s">
         <v>207</v>
@@ -25411,7 +25369,7 @@
       <c r="H44" s="21"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" s="18" customFormat="1">
       <c r="A45" s="53"/>
       <c r="B45" s="21" t="s">
         <v>225</v>
@@ -25430,7 +25388,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A46" s="53"/>
       <c r="B46" s="21" t="s">
         <v>226</v>
@@ -25449,7 +25407,7 @@
       <c r="H46" s="21"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="18" customFormat="1">
       <c r="A47" s="53"/>
       <c r="B47" s="21" t="s">
         <v>174</v>
@@ -25466,7 +25424,7 @@
       <c r="H47" s="21"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" s="18" customFormat="1">
       <c r="A48" s="53"/>
       <c r="B48" s="21" t="s">
         <v>208</v>
@@ -25483,7 +25441,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="28"/>
     </row>
-    <row r="49" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:9" s="18" customFormat="1">
       <c r="A49" s="53"/>
       <c r="B49" s="21" t="s">
         <v>209</v>
@@ -25500,7 +25458,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:9" s="18" customFormat="1">
       <c r="A50" s="53"/>
       <c r="B50" s="21" t="s">
         <v>209</v>
@@ -25517,7 +25475,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51"/>
       <c r="B51" s="21"/>
       <c r="C51" s="21"/>
@@ -25528,7 +25486,7 @@
       <c r="H51" s="21"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" s="18" customFormat="1">
       <c r="A52"/>
       <c r="B52" s="21"/>
       <c r="C52" s="21"/>
@@ -25539,7 +25497,7 @@
       <c r="H52" s="21"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:9" s="18" customFormat="1">
       <c r="A53" s="53" t="s">
         <v>175</v>
       </c>
@@ -25558,7 +25516,7 @@
       <c r="H53" s="21"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:9" s="18" customFormat="1">
       <c r="A54" s="53"/>
       <c r="B54" s="21" t="s">
         <v>211</v>
@@ -25575,7 +25533,7 @@
       <c r="H54" s="21"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A55" s="53"/>
       <c r="B55" s="21" t="s">
         <v>189</v>
@@ -25596,7 +25554,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" s="18" customFormat="1">
       <c r="A56" s="53"/>
       <c r="B56" s="21" t="s">
         <v>199</v>
@@ -25613,7 +25571,7 @@
       <c r="H56" s="21"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:9" s="18" customFormat="1">
       <c r="A57" s="53"/>
       <c r="B57" s="21" t="s">
         <v>212</v>
@@ -25630,7 +25588,7 @@
       <c r="H57" s="21"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:9" s="18" customFormat="1">
       <c r="A58" s="53"/>
       <c r="B58" s="21" t="s">
         <v>202</v>
@@ -25647,7 +25605,7 @@
       <c r="H58" s="21"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:9" s="18" customFormat="1">
       <c r="A59" s="53"/>
       <c r="B59" s="21" t="s">
         <v>197</v>
@@ -25664,7 +25622,7 @@
       <c r="H59" s="21"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:9" s="18" customFormat="1">
       <c r="A60" s="53"/>
       <c r="B60" s="21" t="s">
         <v>204</v>
@@ -25681,7 +25639,7 @@
       <c r="H60" s="21"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" s="18" customFormat="1">
       <c r="A61" s="53"/>
       <c r="B61" s="21" t="s">
         <v>213</v>
@@ -25700,7 +25658,7 @@
       <c r="H61" s="21"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" s="18" customFormat="1">
       <c r="A62" s="53"/>
       <c r="B62" s="21" t="s">
         <v>190</v>
@@ -25717,7 +25675,7 @@
       <c r="H62" s="21"/>
       <c r="I62" s="28"/>
     </row>
-    <row r="63" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:9" s="18" customFormat="1">
       <c r="A63" s="53"/>
       <c r="B63" s="21" t="s">
         <v>214</v>
@@ -25736,7 +25694,7 @@
       <c r="H63" s="21"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:9" s="18" customFormat="1">
       <c r="A64" s="53"/>
       <c r="B64" s="21" t="s">
         <v>174</v>
@@ -25753,7 +25711,7 @@
       <c r="H64" s="21"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" s="18" customFormat="1">
       <c r="A65"/>
       <c r="B65" s="21"/>
       <c r="C65" s="21"/>
@@ -25764,7 +25722,7 @@
       <c r="H65" s="21"/>
       <c r="I65" s="28"/>
     </row>
-    <row r="66" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" s="18" customFormat="1">
       <c r="A66"/>
       <c r="B66" s="21"/>
       <c r="C66" s="21"/>
@@ -25775,7 +25733,7 @@
       <c r="H66" s="21"/>
       <c r="I66" s="28"/>
     </row>
-    <row r="67" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A67" s="62" t="s">
         <v>176</v>
       </c>
@@ -25798,7 +25756,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A68" s="62"/>
       <c r="B68" s="21" t="s">
         <v>216</v>
@@ -25819,7 +25777,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:9" s="18" customFormat="1">
       <c r="A69" s="62"/>
       <c r="B69" s="21" t="s">
         <v>174</v>
@@ -25836,7 +25794,7 @@
       <c r="H69" s="21"/>
       <c r="I69" s="28"/>
     </row>
-    <row r="70" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" s="18" customFormat="1">
       <c r="A70"/>
       <c r="B70" s="21"/>
       <c r="C70" s="21"/>
@@ -25847,7 +25805,7 @@
       <c r="H70" s="21"/>
       <c r="I70" s="28"/>
     </row>
-    <row r="71" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:9" s="18" customFormat="1">
       <c r="A71"/>
       <c r="B71" s="21"/>
       <c r="C71" s="21"/>
@@ -25858,7 +25816,7 @@
       <c r="H71" s="21"/>
       <c r="I71" s="28"/>
     </row>
-    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A72" s="62" t="s">
         <v>168</v>
       </c>
@@ -25881,7 +25839,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A73" s="62"/>
       <c r="B73" s="21" t="s">
         <v>215</v>
@@ -25902,7 +25860,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" s="18" customFormat="1">
       <c r="A74" s="62"/>
       <c r="B74" s="21" t="s">
         <v>174</v>
@@ -25919,7 +25877,7 @@
       <c r="H74" s="21"/>
       <c r="I74" s="28"/>
     </row>
-    <row r="75" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" s="18" customFormat="1">
       <c r="A75"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -25930,7 +25888,7 @@
       <c r="H75" s="21"/>
       <c r="I75" s="28"/>
     </row>
-    <row r="76" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" s="18" customFormat="1">
       <c r="A76"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -25941,7 +25899,7 @@
       <c r="H76" s="21"/>
       <c r="I76" s="28"/>
     </row>
-    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A77" s="53" t="s">
         <v>169</v>
       </c>
@@ -25964,7 +25922,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A78" s="53"/>
       <c r="B78" s="21" t="s">
         <v>217</v>
@@ -25985,7 +25943,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" s="18" customFormat="1">
       <c r="A79" s="53"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -25998,7 +25956,7 @@
       <c r="H79" s="21"/>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" s="18" customFormat="1">
       <c r="A80" s="53"/>
       <c r="B80" s="21" t="s">
         <v>220</v>
@@ -26019,7 +25977,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" s="18" customFormat="1">
       <c r="A81" s="53"/>
       <c r="B81" s="21" t="s">
         <v>219</v>
@@ -26040,7 +25998,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" s="18" customFormat="1">
       <c r="A82" s="53"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -26053,7 +26011,7 @@
       <c r="H82" s="21"/>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A83" s="53"/>
       <c r="B83" s="21" t="s">
         <v>215</v>
@@ -26074,7 +26032,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" s="18" customFormat="1">
       <c r="A84" s="53"/>
       <c r="B84" s="21" t="s">
         <v>174</v>
@@ -26091,7 +26049,7 @@
       <c r="H84" s="21"/>
       <c r="I84" s="28"/>
     </row>
-    <row r="85" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" s="18" customFormat="1">
       <c r="A85"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -26102,7 +26060,7 @@
       <c r="H85" s="21"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" s="18" customFormat="1">
       <c r="A86"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -26113,7 +26071,7 @@
       <c r="H86" s="21"/>
       <c r="I86" s="28"/>
     </row>
-    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" s="18" customFormat="1" ht="40.5">
       <c r="A87" s="53" t="s">
         <v>106</v>
       </c>
@@ -26136,7 +26094,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A88" s="53"/>
       <c r="B88" s="21" t="s">
         <v>217</v>
@@ -26157,7 +26115,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" s="18" customFormat="1">
       <c r="A89" s="53"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -26170,7 +26128,7 @@
       <c r="H89" s="21"/>
       <c r="I89" s="28"/>
     </row>
-    <row r="90" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A90" s="53"/>
       <c r="B90" s="21" t="s">
         <v>219</v>
@@ -26191,7 +26149,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" s="18" customFormat="1">
       <c r="A91" s="53"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -26204,7 +26162,7 @@
       <c r="H91" s="21"/>
       <c r="I91" s="28"/>
     </row>
-    <row r="92" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A92" s="53"/>
       <c r="B92" s="21" t="s">
         <v>215</v>
@@ -26225,7 +26183,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" s="18" customFormat="1">
       <c r="A93" s="53"/>
       <c r="B93" s="21" t="s">
         <v>174</v>
@@ -26242,7 +26200,7 @@
       <c r="H93" s="21"/>
       <c r="I93" s="28"/>
     </row>
-    <row r="94" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" s="18" customFormat="1">
       <c r="A94"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -26253,7 +26211,7 @@
       <c r="H94" s="21"/>
       <c r="I94" s="28"/>
     </row>
-    <row r="95" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:9" s="18" customFormat="1">
       <c r="A95"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -26264,7 +26222,7 @@
       <c r="H95" s="21"/>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:9" s="18" customFormat="1">
       <c r="A96" s="53" t="s">
         <v>104</v>
       </c>
@@ -26287,7 +26245,7 @@
       </c>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A97" s="53"/>
       <c r="B97" s="21" t="s">
         <v>189</v>
@@ -26308,7 +26266,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:9" s="18" customFormat="1">
       <c r="A98" s="53"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -26321,7 +26279,7 @@
       <c r="H98" s="21"/>
       <c r="I98" s="28"/>
     </row>
-    <row r="99" spans="1:9" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:9" s="18" customFormat="1" ht="27">
       <c r="A99" s="53"/>
       <c r="B99" s="21" t="s">
         <v>218</v>
@@ -26342,7 +26300,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:9" s="18" customFormat="1">
       <c r="A100" s="53"/>
       <c r="B100" s="21" t="s">
         <v>174</v>
@@ -26359,7 +26317,7 @@
       <c r="H100" s="21"/>
       <c r="I100" s="28"/>
     </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:9" s="18" customFormat="1">
       <c r="A101"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -26370,7 +26328,7 @@
       <c r="H101" s="21"/>
       <c r="I101" s="28"/>
     </row>
-    <row r="102" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:9" s="18" customFormat="1">
       <c r="A102"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -26381,7 +26339,7 @@
       <c r="H102" s="21"/>
       <c r="I102" s="28"/>
     </row>
-    <row r="103" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:9" s="18" customFormat="1">
       <c r="A103"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -26392,7 +26350,7 @@
       <c r="H103" s="21"/>
       <c r="I103" s="28"/>
     </row>
-    <row r="104" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:9" s="18" customFormat="1">
       <c r="A104"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -26403,7 +26361,7 @@
       <c r="H104" s="21"/>
       <c r="I104" s="28"/>
     </row>
-    <row r="105" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:9" s="18" customFormat="1">
       <c r="A105"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -26414,7 +26372,7 @@
       <c r="H105" s="21"/>
       <c r="I105" s="28"/>
     </row>
-    <row r="106" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:9" s="18" customFormat="1">
       <c r="B106" s="19"/>
       <c r="C106" s="19"/>
       <c r="D106"/>
@@ -26423,7 +26381,7 @@
       <c r="G106"/>
       <c r="I106" s="24"/>
     </row>
-    <row r="107" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:9" s="18" customFormat="1">
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
@@ -26432,7 +26390,7 @@
       <c r="G107"/>
       <c r="I107" s="24"/>
     </row>
-    <row r="108" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" s="18" customFormat="1">
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
@@ -26441,7 +26399,7 @@
       <c r="G108"/>
       <c r="I108" s="24"/>
     </row>
-    <row r="109" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" s="18" customFormat="1">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -26451,7 +26409,7 @@
       <c r="G109"/>
       <c r="I109" s="24"/>
     </row>
-    <row r="110" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" s="18" customFormat="1">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -26461,7 +26419,7 @@
       <c r="G110"/>
       <c r="I110" s="24"/>
     </row>
-    <row r="111" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" s="18" customFormat="1">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -26471,7 +26429,7 @@
       <c r="G111"/>
       <c r="I111" s="24"/>
     </row>
-    <row r="112" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" s="18" customFormat="1">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -26481,7 +26439,7 @@
       <c r="G112"/>
       <c r="I112" s="24"/>
     </row>
-    <row r="113" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" s="18" customFormat="1">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -26491,7 +26449,7 @@
       <c r="G113"/>
       <c r="I113" s="24"/>
     </row>
-    <row r="114" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" s="18" customFormat="1">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -26501,7 +26459,7 @@
       <c r="G114"/>
       <c r="I114" s="24"/>
     </row>
-    <row r="115" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" s="18" customFormat="1">
       <c r="A115"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -26511,7 +26469,7 @@
       <c r="G115"/>
       <c r="I115" s="24"/>
     </row>
-    <row r="116" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" s="18" customFormat="1">
       <c r="A116"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -26521,7 +26479,7 @@
       <c r="G116"/>
       <c r="I116" s="24"/>
     </row>
-    <row r="117" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" s="18" customFormat="1">
       <c r="A117"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -26531,7 +26489,7 @@
       <c r="G117"/>
       <c r="I117" s="24"/>
     </row>
-    <row r="118" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" s="18" customFormat="1">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -26541,7 +26499,7 @@
       <c r="G118"/>
       <c r="I118" s="24"/>
     </row>
-    <row r="119" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" s="18" customFormat="1">
       <c r="A119"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -26551,7 +26509,7 @@
       <c r="G119"/>
       <c r="I119" s="24"/>
     </row>
-    <row r="120" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" s="18" customFormat="1">
       <c r="A120"/>
       <c r="B120"/>
       <c r="C120"/>
@@ -26561,7 +26519,7 @@
       <c r="G120"/>
       <c r="I120" s="24"/>
     </row>
-    <row r="121" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" s="18" customFormat="1">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
@@ -26571,7 +26529,7 @@
       <c r="G121"/>
       <c r="I121" s="24"/>
     </row>
-    <row r="122" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" s="18" customFormat="1">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -26581,7 +26539,7 @@
       <c r="G122"/>
       <c r="I122" s="24"/>
     </row>
-    <row r="123" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" s="18" customFormat="1">
       <c r="A123"/>
       <c r="B123"/>
       <c r="C123"/>
@@ -26591,7 +26549,7 @@
       <c r="G123"/>
       <c r="I123" s="24"/>
     </row>
-    <row r="124" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" s="18" customFormat="1">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -26601,7 +26559,7 @@
       <c r="G124"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" s="18" customFormat="1">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -26611,7 +26569,7 @@
       <c r="G125"/>
       <c r="I125" s="24"/>
     </row>
-    <row r="126" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" s="18" customFormat="1">
       <c r="A126"/>
       <c r="B126"/>
       <c r="C126"/>
@@ -26621,7 +26579,7 @@
       <c r="G126"/>
       <c r="I126" s="24"/>
     </row>
-    <row r="127" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" s="18" customFormat="1">
       <c r="A127"/>
       <c r="B127"/>
       <c r="C127"/>
@@ -26631,7 +26589,7 @@
       <c r="G127"/>
       <c r="I127" s="24"/>
     </row>
-    <row r="128" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" s="18" customFormat="1">
       <c r="A128"/>
       <c r="B128"/>
       <c r="C128"/>
@@ -26641,7 +26599,7 @@
       <c r="G128"/>
       <c r="I128" s="24"/>
     </row>
-    <row r="129" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" s="18" customFormat="1">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -26651,7 +26609,7 @@
       <c r="G129"/>
       <c r="I129" s="24"/>
     </row>
-    <row r="130" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" s="18" customFormat="1">
       <c r="A130"/>
       <c r="B130"/>
       <c r="C130"/>
@@ -26661,7 +26619,7 @@
       <c r="G130"/>
       <c r="I130" s="24"/>
     </row>
-    <row r="131" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" s="18" customFormat="1">
       <c r="A131"/>
       <c r="B131"/>
       <c r="C131"/>
@@ -26671,7 +26629,7 @@
       <c r="G131"/>
       <c r="I131" s="24"/>
     </row>
-    <row r="132" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" s="18" customFormat="1">
       <c r="A132"/>
       <c r="B132"/>
       <c r="C132"/>
@@ -26681,7 +26639,7 @@
       <c r="G132"/>
       <c r="I132" s="24"/>
     </row>
-    <row r="133" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:9" s="18" customFormat="1">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -26691,7 +26649,7 @@
       <c r="G133"/>
       <c r="I133" s="24"/>
     </row>
-    <row r="134" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:9" s="18" customFormat="1">
       <c r="A134"/>
       <c r="B134"/>
       <c r="C134"/>
@@ -26701,7 +26659,7 @@
       <c r="G134"/>
       <c r="I134" s="24"/>
     </row>
-    <row r="135" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:9" s="18" customFormat="1">
       <c r="A135"/>
       <c r="B135"/>
       <c r="C135"/>
@@ -26711,7 +26669,7 @@
       <c r="G135"/>
       <c r="I135" s="24"/>
     </row>
-    <row r="136" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:9" s="18" customFormat="1">
       <c r="A136"/>
       <c r="B136"/>
       <c r="C136"/>
@@ -26721,7 +26679,7 @@
       <c r="G136"/>
       <c r="I136" s="24"/>
     </row>
-    <row r="137" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:9" s="18" customFormat="1">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
@@ -26731,7 +26689,7 @@
       <c r="G137"/>
       <c r="I137" s="24"/>
     </row>
-    <row r="138" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:9" s="18" customFormat="1">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -26741,7 +26699,7 @@
       <c r="G138"/>
       <c r="I138" s="24"/>
     </row>
-    <row r="139" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:9" s="18" customFormat="1">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
@@ -26751,7 +26709,7 @@
       <c r="G139"/>
       <c r="I139" s="24"/>
     </row>
-    <row r="140" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:9" s="18" customFormat="1">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
@@ -26761,7 +26719,7 @@
       <c r="G140"/>
       <c r="I140" s="24"/>
     </row>
-    <row r="141" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:9" s="18" customFormat="1">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
@@ -26771,7 +26729,7 @@
       <c r="G141"/>
       <c r="I141" s="24"/>
     </row>
-    <row r="142" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:9" s="18" customFormat="1">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
@@ -26782,7 +26740,7 @@
       <c r="I142" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I12" xr:uid="{FCC40430-5442-42BD-86D5-093D10726D1D}"/>
+  <autoFilter ref="A1:I12"/>
   <mergeCells count="8">
     <mergeCell ref="A15:A50"/>
     <mergeCell ref="A2:A12"/>
@@ -26799,14 +26757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.875" customWidth="1"/>
@@ -26821,7 +26779,7 @@
     <col min="11" max="11" width="96.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -26854,7 +26812,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>165</v>
       </c>
@@ -26889,7 +26847,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -26922,7 +26880,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -26955,7 +26913,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="53" t="s">
         <v>166</v>
       </c>
@@ -26990,7 +26948,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="53"/>
       <c r="B6" s="21" t="s">
         <v>183</v>
@@ -27023,7 +26981,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="53"/>
       <c r="B7" s="21" t="s">
         <v>184</v>
@@ -27056,7 +27014,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="53"/>
       <c r="B8" s="21" t="s">
         <v>185</v>
@@ -27089,7 +27047,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="40.5">
       <c r="A9" s="53"/>
       <c r="B9" s="21" t="s">
         <v>186</v>
@@ -27122,7 +27080,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="53"/>
       <c r="B10" s="21" t="s">
         <v>187</v>
@@ -27155,7 +27113,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="53"/>
       <c r="B11" s="21" t="s">
         <v>188</v>
@@ -27188,7 +27146,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="53"/>
       <c r="B12" s="21" t="s">
         <v>189</v>
@@ -27221,7 +27179,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="53"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
@@ -27254,7 +27212,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="53"/>
       <c r="B14" s="21" t="s">
         <v>191</v>
@@ -27287,7 +27245,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="53"/>
       <c r="B15" s="21" t="s">
         <v>192</v>
@@ -27320,7 +27278,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="53"/>
       <c r="B16" s="21" t="s">
         <v>193</v>
@@ -27353,7 +27311,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="53"/>
       <c r="B17" s="21" t="s">
         <v>194</v>
@@ -27386,7 +27344,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" ht="54">
       <c r="A18" s="53"/>
       <c r="B18" s="21" t="s">
         <v>195</v>
@@ -27419,7 +27377,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="54" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11" ht="54">
       <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>195</v>
@@ -27452,7 +27410,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>196</v>
@@ -27485,7 +27443,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="53"/>
       <c r="B21" s="21" t="s">
         <v>196</v>
@@ -27518,7 +27476,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="53"/>
       <c r="B22" s="21" t="s">
         <v>197</v>
@@ -27551,7 +27509,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="53"/>
       <c r="B23" s="21" t="s">
         <v>197</v>
@@ -27584,7 +27542,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>198</v>
@@ -27617,7 +27575,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="53"/>
       <c r="B25" s="21" t="s">
         <v>199</v>
@@ -27650,7 +27608,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="53"/>
       <c r="B26" s="21" t="s">
         <v>200</v>
@@ -27683,7 +27641,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="53"/>
       <c r="B27" s="21" t="s">
         <v>201</v>
@@ -27716,7 +27674,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="53"/>
       <c r="B28" s="21" t="s">
         <v>201</v>
@@ -27749,7 +27707,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="53"/>
       <c r="B29" s="21" t="s">
         <v>202</v>
@@ -27782,7 +27740,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="53"/>
       <c r="B30" s="21" t="s">
         <v>202</v>
@@ -27815,7 +27773,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" s="53"/>
       <c r="B31" s="21" t="s">
         <v>203</v>
@@ -27848,7 +27806,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1">
       <c r="A32" s="53"/>
       <c r="B32" s="21" t="s">
         <v>204</v>
@@ -27881,7 +27839,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1">
       <c r="A33" s="53"/>
       <c r="B33" s="21" t="s">
         <v>204</v>
@@ -27914,7 +27872,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="53"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -27947,7 +27905,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="53"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -27980,7 +27938,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="53"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -28013,7 +27971,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="53"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -28046,7 +28004,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="53"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -28079,7 +28037,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="53"/>
       <c r="B39" s="21" t="s">
         <v>205</v>
@@ -28112,7 +28070,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="53"/>
       <c r="B40" s="21" t="s">
         <v>205</v>
@@ -28145,7 +28103,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="53"/>
       <c r="B41" s="21" t="s">
         <v>205</v>
@@ -28178,7 +28136,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="53"/>
       <c r="B42" s="21" t="s">
         <v>205</v>
@@ -28211,7 +28169,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="53"/>
       <c r="B43" s="21" t="s">
         <v>205</v>
@@ -28244,7 +28202,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="53"/>
       <c r="B44" s="21" t="s">
         <v>205</v>
@@ -28277,7 +28235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="53"/>
       <c r="B45" s="21" t="s">
         <v>205</v>
@@ -28310,7 +28268,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="53"/>
       <c r="B46" s="21" t="s">
         <v>206</v>
@@ -28343,7 +28301,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="53" t="s">
         <v>175</v>
       </c>
@@ -28362,7 +28320,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="53"/>
       <c r="B48" s="21" t="s">
         <v>211</v>
@@ -28379,7 +28337,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="53"/>
       <c r="B49" s="21" t="s">
         <v>189</v>
@@ -28412,7 +28370,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="53"/>
       <c r="B50" s="21" t="s">
         <v>199</v>
@@ -28429,7 +28387,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="53"/>
       <c r="B51" s="21" t="s">
         <v>212</v>
@@ -28446,7 +28404,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="53"/>
       <c r="B52" s="21" t="s">
         <v>202</v>
@@ -28463,7 +28421,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="53"/>
       <c r="B53" s="21" t="s">
         <v>197</v>
@@ -28480,7 +28438,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="53"/>
       <c r="B54" s="21" t="s">
         <v>204</v>
@@ -28497,7 +28455,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="53" t="s">
         <v>176</v>
       </c>
@@ -28532,7 +28490,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="53"/>
       <c r="B56" s="21" t="s">
         <v>216</v>
@@ -28565,7 +28523,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="53" t="s">
         <v>168</v>
       </c>
@@ -28600,7 +28558,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" s="53"/>
       <c r="B58" s="21" t="s">
         <v>215</v>
@@ -28633,7 +28591,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11" ht="40.5">
       <c r="A59" s="53" t="s">
         <v>169</v>
       </c>
@@ -28668,7 +28626,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="53"/>
       <c r="B60" s="21" t="s">
         <v>217</v>
@@ -28701,7 +28659,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="53"/>
       <c r="B61" s="21" t="s">
         <v>220</v>
@@ -28734,7 +28692,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" s="53"/>
       <c r="B62" s="21" t="s">
         <v>219</v>
@@ -28767,7 +28725,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="A63" s="53"/>
       <c r="B63" s="21" t="s">
         <v>215</v>
@@ -28800,7 +28758,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="27" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11" ht="27">
       <c r="A64" s="53" t="s">
         <v>106</v>
       </c>
@@ -28835,7 +28793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="53"/>
       <c r="B65" s="21" t="s">
         <v>217</v>
@@ -28868,7 +28826,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="53"/>
       <c r="B66" s="21" t="s">
         <v>219</v>
@@ -28901,7 +28859,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="53"/>
       <c r="B67" s="21" t="s">
         <v>215</v>
@@ -28934,7 +28892,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="53" t="s">
         <v>104</v>
       </c>
@@ -28969,7 +28927,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="53"/>
       <c r="B69" s="21" t="s">
         <v>189</v>
@@ -29002,7 +28960,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="53"/>
       <c r="B70" s="21" t="s">
         <v>218</v>
@@ -29036,7 +28994,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K70" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <autoFilter ref="A1:K70"/>
   <mergeCells count="8">
     <mergeCell ref="A64:A67"/>
     <mergeCell ref="A68:A70"/>
@@ -29053,15 +29011,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69444F1-8F3A-47C5-B89F-7498A7EE66D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
@@ -29074,7 +29032,7 @@
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>167</v>
@@ -29107,7 +29065,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="A2" s="53" t="s">
         <v>165</v>
       </c>
@@ -29132,13 +29090,17 @@
       <c r="H2" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J2" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="53"/>
       <c r="B3" s="21" t="s">
         <v>171</v>
@@ -29161,13 +29123,15 @@
       <c r="H3" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>322</v>
       </c>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="53"/>
       <c r="B4" s="21" t="s">
         <v>172</v>
@@ -29190,13 +29154,17 @@
       <c r="H4" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="53"/>
       <c r="B5" s="21" t="s">
         <v>177</v>
@@ -29222,7 +29190,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" hidden="1">
       <c r="A6" s="53"/>
       <c r="B6" s="21" t="s">
         <v>173</v>
@@ -29248,7 +29216,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="53"/>
       <c r="B7" s="21" t="s">
         <v>178</v>
@@ -29274,7 +29242,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" hidden="1">
       <c r="A8" s="53"/>
       <c r="B8" s="21" t="s">
         <v>179</v>
@@ -29300,7 +29268,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="53"/>
       <c r="B9" s="21" t="s">
         <v>180</v>
@@ -29326,7 +29294,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" hidden="1">
       <c r="A10" s="53"/>
       <c r="B10" s="21" t="s">
         <v>174</v>
@@ -29352,7 +29320,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="53" t="s">
         <v>166</v>
       </c>
@@ -29383,7 +29351,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="53"/>
       <c r="B12" s="21" t="s">
         <v>183</v>
@@ -29412,7 +29380,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="53"/>
       <c r="B13" s="21" t="s">
         <v>184</v>
@@ -29441,7 +29409,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="53"/>
       <c r="B14" s="21" t="s">
         <v>185</v>
@@ -29470,7 +29438,7 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="53"/>
       <c r="B15" s="21" t="s">
         <v>186</v>
@@ -29499,7 +29467,7 @@
       </c>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="53"/>
       <c r="B16" s="21" t="s">
         <v>187</v>
@@ -29528,7 +29496,7 @@
       </c>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="53"/>
       <c r="B17" s="21" t="s">
         <v>188</v>
@@ -29557,7 +29525,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="53"/>
       <c r="B18" s="21" t="s">
         <v>189</v>
@@ -29586,7 +29554,7 @@
       </c>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="53"/>
       <c r="B19" s="21" t="s">
         <v>190</v>
@@ -29615,7 +29583,7 @@
       </c>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="53"/>
       <c r="B20" s="21" t="s">
         <v>191</v>
@@ -29644,7 +29612,7 @@
       </c>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="53"/>
       <c r="B21" s="21" t="s">
         <v>192</v>
@@ -29673,7 +29641,7 @@
       </c>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="53"/>
       <c r="B22" s="21" t="s">
         <v>193</v>
@@ -29702,7 +29670,7 @@
       </c>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="53"/>
       <c r="B23" s="21" t="s">
         <v>194</v>
@@ -29731,7 +29699,7 @@
       </c>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="53"/>
       <c r="B24" s="21" t="s">
         <v>195</v>
@@ -29760,7 +29728,7 @@
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="53"/>
       <c r="B25" s="21" t="s">
         <v>196</v>
@@ -29789,7 +29757,7 @@
       </c>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="53"/>
       <c r="B26" s="21" t="s">
         <v>197</v>
@@ -29818,7 +29786,7 @@
       </c>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="53"/>
       <c r="B27" s="21" t="s">
         <v>198</v>
@@ -29847,7 +29815,7 @@
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="53"/>
       <c r="B28" s="21" t="s">
         <v>199</v>
@@ -29876,7 +29844,7 @@
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="53"/>
       <c r="B29" s="21" t="s">
         <v>200</v>
@@ -29899,13 +29867,17 @@
       <c r="H29" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J29" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K29" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="53"/>
       <c r="B30" s="21" t="s">
         <v>201</v>
@@ -29934,7 +29906,7 @@
       </c>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" s="53"/>
       <c r="B31" s="21" t="s">
         <v>202</v>
@@ -29963,7 +29935,7 @@
       </c>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" s="53"/>
       <c r="B32" s="21" t="s">
         <v>203</v>
@@ -29992,7 +29964,7 @@
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="53"/>
       <c r="B33" s="21" t="s">
         <v>204</v>
@@ -30021,7 +29993,7 @@
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="53"/>
       <c r="B34" s="21" t="s">
         <v>205</v>
@@ -30054,7 +30026,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="53"/>
       <c r="B35" s="21" t="s">
         <v>205</v>
@@ -30087,7 +30059,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="53"/>
       <c r="B36" s="21" t="s">
         <v>205</v>
@@ -30120,7 +30092,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="53"/>
       <c r="B37" s="21" t="s">
         <v>205</v>
@@ -30153,7 +30125,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="53"/>
       <c r="B38" s="21" t="s">
         <v>205</v>
@@ -30186,7 +30158,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="53"/>
       <c r="B39" s="21" t="s">
         <v>206</v>
@@ -30212,7 +30184,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11" hidden="1">
       <c r="A40" s="53"/>
       <c r="B40" s="21" t="s">
         <v>207</v>
@@ -30238,7 +30210,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11" hidden="1">
       <c r="A41" s="53"/>
       <c r="B41" s="21" t="s">
         <v>225</v>
@@ -30264,7 +30236,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="53"/>
       <c r="B42" s="21" t="s">
         <v>226</v>
@@ -30290,7 +30262,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11" hidden="1">
       <c r="A43" s="53"/>
       <c r="B43" s="21" t="s">
         <v>174</v>
@@ -30316,7 +30288,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11" hidden="1">
       <c r="A44" s="53"/>
       <c r="B44" s="21" t="s">
         <v>208</v>
@@ -30342,7 +30314,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11" hidden="1">
       <c r="A45" s="53"/>
       <c r="B45" s="21" t="s">
         <v>209</v>
@@ -30368,7 +30340,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11" hidden="1">
       <c r="A46" s="53"/>
       <c r="B46" s="21" t="s">
         <v>209</v>
@@ -30394,7 +30366,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11" hidden="1">
       <c r="A47" s="53" t="s">
         <v>175</v>
       </c>
@@ -30422,7 +30394,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="53"/>
       <c r="B48" s="21" t="s">
         <v>211</v>
@@ -30448,13 +30420,13 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="53"/>
       <c r="B49" s="21" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>92</v>
+        <v>304</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>567</v>
@@ -30463,7 +30435,7 @@
         <v>572</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>573</v>
@@ -30471,28 +30443,32 @@
       <c r="H49" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J49" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="53"/>
       <c r="B50" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>93</v>
+        <v>189</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>567</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>573</v>
@@ -30501,15 +30477,18 @@
         <v>573</v>
       </c>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="J50" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" hidden="1">
       <c r="A51" s="53"/>
       <c r="B51" s="21" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>567</v>
@@ -30529,13 +30508,13 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="53"/>
       <c r="B52" s="21" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>567</v>
@@ -30555,13 +30534,13 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="53"/>
       <c r="B53" s="21" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>567</v>
@@ -30581,13 +30560,13 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="53"/>
       <c r="B54" s="21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>567</v>
@@ -30607,16 +30586,16 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="53"/>
       <c r="B55" s="21" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>573</v>
@@ -30633,13 +30612,13 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="53"/>
       <c r="B56" s="21" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>569</v>
@@ -30659,13 +30638,13 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11" hidden="1">
       <c r="A57" s="53"/>
       <c r="B57" s="21" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>569</v>
@@ -30685,16 +30664,16 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="53"/>
       <c r="B58" s="21" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>573</v>
@@ -30711,24 +30690,22 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A59" s="53" t="s">
-        <v>176</v>
-      </c>
+    <row r="59" spans="1:11" hidden="1">
+      <c r="A59" s="53"/>
       <c r="B59" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>34</v>
+        <v>174</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>573</v>
@@ -30736,23 +30713,18 @@
       <c r="H59" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A60" s="53"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="53" t="s">
+        <v>176</v>
+      </c>
       <c r="B60" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>567</v>
@@ -30779,22 +30751,22 @@
         <v>579</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="53"/>
       <c r="B61" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>100</v>
+        <v>216</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>573</v>
@@ -30802,51 +30774,51 @@
       <c r="H61" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A62" s="53" t="s">
-        <v>168</v>
-      </c>
+      <c r="I61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1">
+      <c r="A62" s="53"/>
       <c r="B62" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>37</v>
+        <v>174</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A63" s="53"/>
+        <v>573</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="53" t="s">
+        <v>168</v>
+      </c>
       <c r="B63" s="21" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>567</v>
@@ -30861,7 +30833,7 @@
         <v>573</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>327</v>
@@ -30873,22 +30845,22 @@
         <v>579</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" s="53"/>
       <c r="B64" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C64" s="9" t="s">
-        <v>103</v>
+        <v>215</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>573</v>
@@ -30896,47 +30868,51 @@
       <c r="H64" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A65" s="53" t="s">
-        <v>169</v>
-      </c>
+      <c r="I64" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1">
+      <c r="A65" s="53"/>
       <c r="B65" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>29</v>
+        <v>174</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I65" s="1"/>
-      <c r="J65" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="K65" s="1"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A66" s="53"/>
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="53" t="s">
+        <v>169</v>
+      </c>
       <c r="B66" s="21" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>567</v>
@@ -30951,7 +30927,7 @@
         <v>573</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="1" t="s">
@@ -30959,13 +30935,13 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="53"/>
       <c r="B67" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>567</v>
@@ -30988,13 +30964,13 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="53"/>
       <c r="B68" s="21" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>567</v>
@@ -31017,13 +30993,13 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="53"/>
       <c r="B69" s="21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>567</v>
@@ -31046,22 +31022,22 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="53"/>
       <c r="B70" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>105</v>
+        <v>215</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>573</v>
@@ -31070,46 +31046,46 @@
         <v>573</v>
       </c>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A71" s="53" t="s">
-        <v>106</v>
-      </c>
+      <c r="J70" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" hidden="1">
+      <c r="A71" s="53"/>
       <c r="B71" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>21</v>
+        <v>174</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I71" s="1"/>
-      <c r="J71" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K71" s="1"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A72" s="53"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="53" t="s">
+        <v>106</v>
+      </c>
       <c r="B72" s="21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>567</v>
@@ -31124,21 +31100,23 @@
         <v>573</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I72" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>556</v>
+      </c>
       <c r="J72" s="1" t="s">
         <v>322</v>
       </c>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="53"/>
       <c r="B73" s="21" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>567</v>
@@ -31155,19 +31133,23 @@
       <c r="H73" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I73" s="1"/>
+      <c r="I73" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J73" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K73" s="1"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K73" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="53"/>
       <c r="B74" s="21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>567</v>
@@ -31184,28 +31166,32 @@
       <c r="H74" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I74" s="1"/>
+      <c r="I74" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J74" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K74" s="1"/>
-    </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K74" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="53"/>
       <c r="B75" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>106</v>
+        <v>215</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>573</v>
@@ -31213,24 +31199,29 @@
       <c r="H75" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A76" s="53" t="s">
-        <v>104</v>
-      </c>
+      <c r="I75" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1">
+      <c r="A76" s="53"/>
       <c r="B76" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>15</v>
+        <v>174</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>573</v>
@@ -31239,21 +31230,20 @@
         <v>573</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I76" s="1"/>
-      <c r="J76" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A77" s="53"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="B77" s="21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>567</v>
@@ -31262,27 +31252,31 @@
         <v>572</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="I77" s="1"/>
+        <v>572</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J77" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K77" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="53"/>
       <c r="B78" s="21" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>567</v>
@@ -31297,42 +31291,77 @@
         <v>573</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="I78" s="1"/>
+        <v>573</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J78" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K78" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="53"/>
       <c r="B79" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>104</v>
+        <v>218</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>573</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" hidden="1">
+      <c r="A80" s="53"/>
+      <c r="B80" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
+      <c r="F80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J79" xr:uid="{D88EB695-D986-45DA-A5DD-B80C2856844A}">
+  <autoFilter ref="A1:J80">
     <filterColumn colId="4">
       <filters>
         <filter val="YES"/>
@@ -31340,28 +31369,28 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="8">
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A77:A80"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A46"/>
-    <mergeCell ref="A47:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A70"/>
+    <mergeCell ref="A47:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A66:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01F9CC0-CE0B-4B5E-8986-7430414A440A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
@@ -31369,7 +31398,7 @@
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>555</v>
       </c>
@@ -31386,7 +31415,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>476</v>
       </c>
@@ -31404,7 +31433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>476</v>
       </c>
@@ -31422,7 +31451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
@@ -31440,7 +31469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>558</v>
       </c>
@@ -31458,7 +31487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>558</v>
       </c>
@@ -31476,7 +31505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>558</v>
       </c>
@@ -31494,7 +31523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>558</v>
       </c>
@@ -31512,7 +31541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>558</v>
       </c>
@@ -31530,7 +31559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>558</v>
       </c>
@@ -31548,7 +31577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>558</v>
       </c>
@@ -31566,7 +31595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>558</v>
       </c>
@@ -31584,7 +31613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>558</v>
       </c>
@@ -31602,7 +31631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>558</v>
       </c>
@@ -31620,7 +31649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>558</v>
       </c>
@@ -31628,7 +31657,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>558</v>
       </c>
@@ -31636,7 +31665,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>558</v>
       </c>
@@ -31644,7 +31673,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>558</v>
       </c>
@@ -31652,7 +31681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>466</v>
       </c>
@@ -31660,7 +31689,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>558</v>
       </c>
@@ -31668,7 +31697,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>558</v>
       </c>
@@ -31676,7 +31705,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>558</v>
       </c>
@@ -31684,7 +31713,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>466</v>
       </c>
@@ -31692,7 +31721,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>558</v>
       </c>
@@ -31700,7 +31729,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>558</v>
       </c>
@@ -31708,7 +31737,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>558</v>
       </c>
@@ -31716,7 +31745,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>558</v>
       </c>
@@ -31724,7 +31753,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>466</v>
       </c>
@@ -31732,7 +31761,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>558</v>
       </c>
@@ -31740,7 +31769,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>466</v>
       </c>
@@ -31748,7 +31777,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>558</v>
       </c>
@@ -31756,7 +31785,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>558</v>
       </c>
@@ -31764,7 +31793,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>466</v>
       </c>
@@ -31772,7 +31801,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="36" t="s">
         <v>558</v>
       </c>
@@ -31780,7 +31809,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="36" t="s">
         <v>466</v>
       </c>
@@ -31788,7 +31817,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="36" t="s">
         <v>497</v>
       </c>
@@ -31796,7 +31825,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="36" t="s">
         <v>558</v>
       </c>
@@ -31804,7 +31833,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="36" t="s">
         <v>497</v>
       </c>
@@ -31812,7 +31841,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="36" t="s">
         <v>558</v>
       </c>
@@ -31820,7 +31849,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="36" t="s">
         <v>497</v>
       </c>
@@ -31828,7 +31857,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="36" t="s">
         <v>558</v>
       </c>
@@ -31836,7 +31865,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="36" t="s">
         <v>466</v>
       </c>
@@ -31844,7 +31873,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="36" t="s">
         <v>497</v>
       </c>
@@ -31852,7 +31881,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="36" t="s">
         <v>558</v>
       </c>
@@ -31860,7 +31889,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="36" t="s">
         <v>497</v>
       </c>
@@ -31868,7 +31897,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>497</v>
       </c>
@@ -31876,7 +31905,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>560</v>
       </c>
@@ -31884,7 +31913,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" s="36" t="s">
         <v>558</v>
       </c>
@@ -31892,7 +31921,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" s="36" t="s">
         <v>558</v>
       </c>
@@ -31900,7 +31929,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" s="36" t="s">
         <v>557</v>
       </c>
@@ -31908,7 +31937,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" s="36" t="s">
         <v>557</v>
       </c>
@@ -31916,7 +31945,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>552</v>
       </c>
@@ -31924,7 +31953,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>552</v>
       </c>
@@ -31932,7 +31961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>552</v>
       </c>
@@ -31940,7 +31969,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>552</v>
       </c>
@@ -31948,7 +31977,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>552</v>
       </c>
@@ -31956,7 +31985,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>561</v>
       </c>
@@ -31964,7 +31993,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>561</v>
       </c>
@@ -31972,7 +32001,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>561</v>
       </c>
@@ -31980,7 +32009,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>561</v>
       </c>
@@ -31988,7 +32017,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>495</v>
       </c>
@@ -31996,7 +32025,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>495</v>
       </c>
@@ -32004,7 +32033,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>495</v>
       </c>
@@ -32013,8 +32042,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:G14" xr:uid="{845B5741-A853-477A-8E69-42C71EF85BC4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:G63">
+  <autoFilter ref="E1:G14"/>
+  <sortState ref="E2:G63">
     <sortCondition ref="E2:E63"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32022,21 +32051,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>297</v>
       </c>
@@ -32047,7 +32076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="29" t="s">
         <v>165</v>
       </c>
@@ -32058,7 +32087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="63" t="s">
         <v>166</v>
       </c>
@@ -32069,7 +32098,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="63"/>
       <c r="B4" s="21" t="s">
         <v>189</v>
@@ -32078,7 +32107,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
@@ -32089,7 +32118,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>176</v>
       </c>
@@ -32100,7 +32129,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>297</v>
       </c>
@@ -32111,7 +32140,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="31" t="s">
         <v>166</v>
       </c>
@@ -32122,7 +32151,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
         <v>104</v>
       </c>
@@ -32133,7 +32162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>297</v>
       </c>
@@ -32144,8 +32173,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="59" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="57" t="s">
         <v>166</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -32155,8 +32184,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="58"/>
       <c r="B20" s="21" t="s">
         <v>202</v>
       </c>
@@ -32164,7 +32193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="A21" s="29" t="s">
         <v>168</v>
       </c>
@@ -32175,7 +32204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3">
       <c r="A22" s="29" t="s">
         <v>169</v>
       </c>
@@ -32186,7 +32215,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3">
       <c r="A23" s="29" t="s">
         <v>106</v>
       </c>
@@ -32197,7 +32226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="A26" s="43" t="s">
         <v>297</v>
       </c>
@@ -32208,7 +32237,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="A27" s="64" t="s">
         <v>166</v>
       </c>
@@ -32219,7 +32248,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="A28" s="64"/>
       <c r="B28" s="45" t="s">
         <v>205</v>
@@ -32228,7 +32257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3">
       <c r="A29" s="64"/>
       <c r="B29" s="45" t="s">
         <v>205</v>
@@ -32237,7 +32266,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="A30" s="64"/>
       <c r="B30" s="45" t="s">
         <v>205</v>
@@ -32246,7 +32275,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="A31" s="64"/>
       <c r="B31" s="45" t="s">
         <v>205</v>
@@ -32255,7 +32284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="A32" s="64"/>
       <c r="B32" s="21" t="s">
         <v>196</v>
@@ -32264,7 +32293,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3">
       <c r="A33" s="64"/>
       <c r="B33" s="21" t="s">
         <v>197</v>
@@ -32273,7 +32302,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3">
       <c r="A34" s="64"/>
       <c r="B34" s="21" t="s">
         <v>201</v>
@@ -32282,7 +32311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3">
       <c r="A35" s="64"/>
       <c r="B35" s="21" t="s">
         <v>202</v>
@@ -32291,7 +32320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3">
       <c r="A36" s="64"/>
       <c r="B36" s="21" t="s">
         <v>204</v>
@@ -32300,7 +32329,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3">
       <c r="A39" s="43" t="s">
         <v>297</v>
       </c>
@@ -32311,7 +32340,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="27">
       <c r="A40" s="46" t="s">
         <v>165</v>
       </c>
@@ -32322,7 +32351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3">
       <c r="A41" s="64" t="s">
         <v>166</v>
       </c>
@@ -32333,7 +32362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3">
       <c r="A42" s="64"/>
       <c r="B42" s="21" t="s">
         <v>196</v>
@@ -32342,7 +32371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3">
       <c r="A43" s="46" t="s">
         <v>168</v>
       </c>
@@ -32353,7 +32382,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3">
       <c r="A44" s="46" t="s">
         <v>169</v>
       </c>
@@ -32364,7 +32393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3">
       <c r="A45" s="46" t="s">
         <v>104</v>
       </c>
@@ -32388,14 +32417,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
@@ -32419,7 +32448,7 @@
     <col min="20" max="20" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20">
       <c r="A1" s="66" t="s">
         <v>338</v>
       </c>
@@ -32451,7 +32480,7 @@
       <c r="S1" s="76"/>
       <c r="T1" s="76"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20">
       <c r="A2" s="37" t="s">
         <v>341</v>
       </c>
@@ -32513,7 +32542,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
@@ -32563,7 +32592,7 @@
       </c>
       <c r="T3" s="36"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
         <v>388</v>
       </c>
@@ -32613,7 +32642,7 @@
       </c>
       <c r="T4" s="36"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
         <v>388</v>
       </c>
@@ -32663,7 +32692,7 @@
       </c>
       <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
         <v>388</v>
       </c>
@@ -32713,7 +32742,7 @@
       </c>
       <c r="T6" s="36"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
         <v>388</v>
       </c>
@@ -32763,7 +32792,7 @@
       </c>
       <c r="T7" s="36"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>388</v>
       </c>
@@ -32813,7 +32842,7 @@
       </c>
       <c r="T8" s="36"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>388</v>
       </c>
@@ -32863,7 +32892,7 @@
       </c>
       <c r="T9" s="36"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
         <v>388</v>
       </c>
@@ -32913,7 +32942,7 @@
       </c>
       <c r="T10" s="36"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
         <v>388</v>
       </c>
@@ -32963,7 +32992,7 @@
       </c>
       <c r="T11" s="36"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
         <v>388</v>
       </c>
@@ -33013,7 +33042,7 @@
       </c>
       <c r="T12" s="36"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
         <v>388</v>
       </c>
@@ -33063,7 +33092,7 @@
       </c>
       <c r="T13" s="36"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
         <v>388</v>
       </c>
@@ -33113,7 +33142,7 @@
       </c>
       <c r="T14" s="36"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
         <v>388</v>
       </c>
@@ -33163,7 +33192,7 @@
       </c>
       <c r="T15" s="36"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
         <v>388</v>
       </c>
@@ -33213,7 +33242,7 @@
       </c>
       <c r="T16" s="36"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>388</v>
       </c>
@@ -33263,7 +33292,7 @@
       </c>
       <c r="T17" s="36"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
         <v>388</v>
       </c>
@@ -33313,7 +33342,7 @@
       </c>
       <c r="T18" s="36"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
         <v>388</v>
       </c>
@@ -33363,7 +33392,7 @@
       </c>
       <c r="T19" s="36"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
         <v>388</v>
       </c>
@@ -33413,7 +33442,7 @@
       </c>
       <c r="T20" s="36"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
         <v>388</v>
       </c>
@@ -33463,7 +33492,7 @@
       </c>
       <c r="T21" s="36"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
         <v>388</v>
       </c>
@@ -33513,7 +33542,7 @@
       </c>
       <c r="T22" s="36"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
@@ -33563,7 +33592,7 @@
       </c>
       <c r="T23" s="36"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -33609,7 +33638,7 @@
       </c>
       <c r="T24" s="36"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
         <v>388</v>
       </c>
@@ -33655,7 +33684,7 @@
       </c>
       <c r="T25" s="36"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
         <v>388</v>
       </c>
@@ -33701,7 +33730,7 @@
       </c>
       <c r="T26" s="36"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -33738,7 +33767,7 @@
       </c>
       <c r="T27" s="36"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -33778,7 +33807,7 @@
       </c>
       <c r="T28" s="36"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -33816,7 +33845,7 @@
       </c>
       <c r="T29" s="36"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -33856,7 +33885,7 @@
       </c>
       <c r="T30" s="36"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -33896,7 +33925,7 @@
       </c>
       <c r="T31" s="36"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -33936,7 +33965,7 @@
       </c>
       <c r="T32" s="36"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -33976,7 +34005,7 @@
       </c>
       <c r="T33" s="36"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -34016,7 +34045,7 @@
       </c>
       <c r="T34" s="36"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -34056,7 +34085,7 @@
       </c>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -34096,7 +34125,7 @@
       </c>
       <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -34136,7 +34165,7 @@
       </c>
       <c r="T37" s="36"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -34176,7 +34205,7 @@
       </c>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -34216,7 +34245,7 @@
       </c>
       <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -34256,7 +34285,7 @@
       </c>
       <c r="T40" s="36"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -34296,7 +34325,7 @@
       </c>
       <c r="T41" s="36"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -34336,7 +34365,7 @@
       </c>
       <c r="T42" s="36"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -34376,7 +34405,7 @@
       </c>
       <c r="T43" s="36"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -34416,7 +34445,7 @@
       </c>
       <c r="T44" s="36"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -34450,7 +34479,7 @@
       </c>
       <c r="T45" s="36"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -34484,7 +34513,7 @@
       </c>
       <c r="T46" s="36"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -34518,7 +34547,7 @@
       </c>
       <c r="T47" s="36"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -34552,7 +34581,7 @@
       </c>
       <c r="T48" s="36"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -34586,7 +34615,7 @@
       </c>
       <c r="T49" s="36"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -34620,7 +34649,7 @@
       </c>
       <c r="T50" s="36"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -34648,7 +34677,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -34676,7 +34705,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -34704,7 +34733,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -34732,7 +34761,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -34760,7 +34789,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -34788,7 +34817,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -34816,7 +34845,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -34844,7 +34873,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -34872,7 +34901,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -34900,7 +34929,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -34928,7 +34957,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -34956,7 +34985,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -34984,7 +35013,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -35012,7 +35041,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -35040,7 +35069,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -35068,7 +35097,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -35096,7 +35125,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -35124,7 +35153,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -35152,7 +35181,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -35180,7 +35209,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:20">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -35208,7 +35237,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -35236,7 +35265,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:20">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -35264,7 +35293,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -35292,7 +35321,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:20">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -35320,7 +35349,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -35348,7 +35377,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:20">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -35376,7 +35405,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -35404,7 +35433,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -35432,7 +35461,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -35460,7 +35489,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:20">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -35488,7 +35517,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:20">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -35516,7 +35545,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:20">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -35544,7 +35573,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:20">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -35572,7 +35601,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:20">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -35600,7 +35629,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:20">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -35628,7 +35657,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:20">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -35656,7 +35685,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:20">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -35684,7 +35713,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:20">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -35712,7 +35741,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:20">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -35740,7 +35769,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:20">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -35768,7 +35797,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:20">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -35796,7 +35825,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:20">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -35824,7 +35853,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:20">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -35852,7 +35881,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:20">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -35880,7 +35909,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:20">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -35908,7 +35937,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:20">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -35936,7 +35965,7 @@
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:20">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -35964,7 +35993,7 @@
       <c r="S98" s="1"/>
       <c r="T98" s="1"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:20">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -35992,7 +36021,7 @@
       <c r="S99" s="1"/>
       <c r="T99" s="1"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:20">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -36020,7 +36049,7 @@
       <c r="S100" s="1"/>
       <c r="T100" s="1"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:20">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -36048,7 +36077,7 @@
       <c r="S101" s="1"/>
       <c r="T101" s="1"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:20">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -36076,7 +36105,7 @@
       <c r="S102" s="1"/>
       <c r="T102" s="1"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:20">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -36104,7 +36133,7 @@
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:20">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -36132,7 +36161,7 @@
       <c r="S104" s="1"/>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:20">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -36160,7 +36189,7 @@
       <c r="S105" s="1"/>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:20">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -36188,7 +36217,7 @@
       <c r="S106" s="1"/>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:20">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -36216,7 +36245,7 @@
       <c r="S107" s="1"/>
       <c r="T107" s="1"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:20">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -36244,7 +36273,7 @@
       <c r="S108" s="1"/>
       <c r="T108" s="1"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:20">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -36272,7 +36301,7 @@
       <c r="S109" s="1"/>
       <c r="T109" s="1"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:20">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -36300,7 +36329,7 @@
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:20">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -36328,7 +36357,7 @@
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:20">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -36356,7 +36385,7 @@
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:20">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -36384,7 +36413,7 @@
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:20">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -36406,7 +36435,7 @@
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:20">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -36428,7 +36457,7 @@
       <c r="S115" s="1"/>
       <c r="T115" s="1"/>
     </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:20">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -36450,7 +36479,7 @@
       <c r="S116" s="1"/>
       <c r="T116" s="1"/>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:20">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -36472,7 +36501,7 @@
       <c r="S117" s="1"/>
       <c r="T117" s="1"/>
     </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:20">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -36494,7 +36523,7 @@
       <c r="S118" s="1"/>
       <c r="T118" s="1"/>
     </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:20">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -36516,7 +36545,7 @@
       <c r="S119" s="1"/>
       <c r="T119" s="1"/>
     </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:20">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -36538,7 +36567,7 @@
       <c r="S120" s="1"/>
       <c r="T120" s="1"/>
     </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:20">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -36560,7 +36589,7 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
     </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:20">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -36582,7 +36611,7 @@
       <c r="S122" s="1"/>
       <c r="T122" s="1"/>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:20">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -36604,7 +36633,7 @@
       <c r="S123" s="1"/>
       <c r="T123" s="1"/>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:20">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -36626,7 +36655,7 @@
       <c r="S124" s="1"/>
       <c r="T124" s="1"/>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:20">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -36648,7 +36677,7 @@
       <c r="S125" s="1"/>
       <c r="T125" s="1"/>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:20">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -36670,7 +36699,7 @@
       <c r="S126" s="1"/>
       <c r="T126" s="1"/>
     </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:20">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -36692,7 +36721,7 @@
       <c r="S127" s="1"/>
       <c r="T127" s="1"/>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:20">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -36714,7 +36743,7 @@
       <c r="S128" s="1"/>
       <c r="T128" s="1"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:20">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -36736,7 +36765,7 @@
       <c r="S129" s="1"/>
       <c r="T129" s="1"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:20">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -36758,7 +36787,7 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:20">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -36780,7 +36809,7 @@
       <c r="S131" s="1"/>
       <c r="T131" s="1"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:20">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -36802,7 +36831,7 @@
       <c r="S132" s="1"/>
       <c r="T132" s="1"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:20">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -36824,7 +36853,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:20">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -36846,7 +36875,7 @@
       <c r="S134" s="1"/>
       <c r="T134" s="1"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:20">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -36868,7 +36897,7 @@
       <c r="S135" s="1"/>
       <c r="T135" s="1"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:20">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -36890,7 +36919,7 @@
       <c r="S136" s="1"/>
       <c r="T136" s="1"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:20">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -36912,7 +36941,7 @@
       <c r="S137" s="1"/>
       <c r="T137" s="1"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:20">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -36934,7 +36963,7 @@
       <c r="S138" s="1"/>
       <c r="T138" s="1"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:20">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -36956,7 +36985,7 @@
       <c r="S139" s="1"/>
       <c r="T139" s="1"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:20">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -36978,7 +37007,7 @@
       <c r="S140" s="1"/>
       <c r="T140" s="1"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:20">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -37000,7 +37029,7 @@
       <c r="S141" s="1"/>
       <c r="T141" s="1"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:20">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -37022,7 +37051,7 @@
       <c r="S142" s="1"/>
       <c r="T142" s="1"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:20">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -37044,7 +37073,7 @@
       <c r="S143" s="1"/>
       <c r="T143" s="1"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:20">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
